--- a/data/hotels_by_city/Denver/Denver_shard_85.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_85.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33691-d225474-Reviews-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Westminster.h425215.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1347 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r567809408-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>225474</t>
+  </si>
+  <si>
+    <t>567809408</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Wish I could have stayed longer.</t>
+  </si>
+  <si>
+    <t>My Fiance and I had a wonderful stay. The room was very clean. The employees were nice and accommodating to our needs. We are very  satisfied with our decision to stay at this hotel, and can't wait to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>My Fiance and I had a wonderful stay. The room was very clean. The employees were nice and accommodating to our needs. We are very  satisfied with our decision to stay at this hotel, and can't wait to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r565309570-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>565309570</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Hate this place!</t>
+  </si>
+  <si>
+    <t>I'll bullet point this for everyone:*Staff is nice and generally easy to work with*Coffee in the morning is pretty good* Beds are uncomfortable*Bed linens are scratchy and rough* Pillows are also uncomfortable*Rooms are very small, especially those with kitchenettes.  About the size of the average hospital room*Can't stay there without a credit card, even if you pay in advance*No smoking rooms and no smoking is allowed anywhere on the property.  If you smoke DO NOT stay here!!!* Doesn't even have basic cable.  Just local channels and 4-5 "cable" channels like Bravo and Lifetime*If you get makeup or any other stains on the towels you will be charged for those towelsIn short, I've hated staying here and have not been able to sleep more than about 3 hrs a nightMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>I'll bullet point this for everyone:*Staff is nice and generally easy to work with*Coffee in the morning is pretty good* Beds are uncomfortable*Bed linens are scratchy and rough* Pillows are also uncomfortable*Rooms are very small, especially those with kitchenettes.  About the size of the average hospital room*Can't stay there without a credit card, even if you pay in advance*No smoking rooms and no smoking is allowed anywhere on the property.  If you smoke DO NOT stay here!!!* Doesn't even have basic cable.  Just local channels and 4-5 "cable" channels like Bravo and Lifetime*If you get makeup or any other stains on the towels you will be charged for those towelsIn short, I've hated staying here and have not been able to sleep more than about 3 hrs a nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r560564981-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>560564981</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>never again</t>
+  </si>
+  <si>
+    <t>now that I am here onsite with them they shared that they have not felt entirely comfortable there (based on the clientele that the location has and a few things broken in their rooms); I´ve also experienced the same concerns over these few days at the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>now that I am here onsite with them they shared that they have not felt entirely comfortable there (based on the clientele that the location has and a few things broken in their rooms); I´ve also experienced the same concerns over these few days at the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r553874621-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>553874621</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Great management</t>
+  </si>
+  <si>
+    <t>I stayed here for week1/2 And all I can say for me,The staff was great ,Gaylynn how she helped me in many ways,and put up with my morning dramas she had patience and understanding and hospitality was #1 and sue also was very accommodating.I was comfortable,room service was very nice.I would stay there just to get away from it all.Thank You ladies and gentlemen for making my stay pleasent.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for week1/2 And all I can say for me,The staff was great ,Gaylynn how she helped me in many ways,and put up with my morning dramas she had patience and understanding and hospitality was #1 and sue also was very accommodating.I was comfortable,room service was very nice.I would stay there just to get away from it all.Thank You ladies and gentlemen for making my stay pleasent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r547746158-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>547746158</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>If you need a place to stay for any reason I would try extended stay first. Very comfortable environment with great staff. It has been a real pleasure staying here. The Westminster location has numerous restaurants within walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded December 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2017</t>
+  </si>
+  <si>
+    <t>If you need a place to stay for any reason I would try extended stay first. Very comfortable environment with great staff. It has been a real pleasure staying here. The Westminster location has numerous restaurants within walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r547365014-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>547365014</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Felt like home</t>
+  </si>
+  <si>
+    <t>Room was clean. Hotel was clean. Friendly service. The staff always goes above and beyond for their guest. Close to the highway for quick access to downtown attractions. Overall I’ve stayed here multiple times and have never had a bad experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean. Hotel was clean. Friendly service. The staff always goes above and beyond for their guest. Close to the highway for quick access to downtown attractions. Overall I’ve stayed here multiple times and have never had a bad experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r540786338-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>540786338</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Awesome staff!</t>
+  </si>
+  <si>
+    <t>The staff here was wonderful and made me feel right at home. My 2 month long stay was great while selling and buying my home. Perfect for anyone in-between homes like I was or just need a place to stay for awhile. Has a full kitchen and pretty much everything you could possibly need. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>The staff here was wonderful and made me feel right at home. My 2 month long stay was great while selling and buying my home. Perfect for anyone in-between homes like I was or just need a place to stay for awhile. Has a full kitchen and pretty much everything you could possibly need. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r536674827-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>536674827</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Great, clean hotel</t>
+  </si>
+  <si>
+    <t>Very comfortable and welcoming stay. Couldn't ask for better service. And the convenience of the location is great. Right next to a shopping center with a little of everything and less than a 10 min walk to the express bus downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Very comfortable and welcoming stay. Couldn't ask for better service. And the convenience of the location is great. Right next to a shopping center with a little of everything and less than a 10 min walk to the express bus downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r536079983-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>536079983</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Excellent Westminster Extended Stay</t>
+  </si>
+  <si>
+    <t>Well-managed,good prices,excellent staff. Would recommend and I have strong knowledge. Pet friendly, clean, responsive to customers, specials and promotions of great value. Great location to Boulder and Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Well-managed,good prices,excellent staff. Would recommend and I have strong knowledge. Pet friendly, clean, responsive to customers, specials and promotions of great value. Great location to Boulder and Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r499680801-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>499680801</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and homey.</t>
+  </si>
+  <si>
+    <t>I liked the hostess at the desk, she made things start great from the moment we came in the door. The rooms are nice and comfortable. Good extra accommodations. Overall wonderful experience. Look forward to the rest of our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>I liked the hostess at the desk, she made things start great from the moment we came in the door. The rooms are nice and comfortable. Good extra accommodations. Overall wonderful experience. Look forward to the rest of our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r499648701-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>499648701</t>
+  </si>
+  <si>
+    <t>Hotel review for our recent visit to denver</t>
+  </si>
+  <si>
+    <t>Hotel is very good. Staff is nice and place is also good. But, they dont provide breakfast as mentioned by these third party hotel booking websites. Everything else is good and totally satisfied with stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is very good. Staff is nice and place is also good. But, they dont provide breakfast as mentioned by these third party hotel booking websites. Everything else is good and totally satisfied with stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r498034181-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>498034181</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Not for me</t>
+  </si>
+  <si>
+    <t>Room had a weird smell...like burnt caramel. I had to keep the curtains shut my entire stay because I was on the ground floor and people liked to stand outside my room and smoke. Light covers on closet and bathroom fixtures were missing, the closet light buzzed loudly, the light switch on one of the desk lamps was broken, one of the bedside lights didn't work, the shower head leaked, the shower drained so slow I was standing in ankle-deep water by the end of each shower. The gentleman who checked me in was awkward and unprofessional, everyone else was fine. "Breakfast" was a joke. Other than that, it was quiet, the A/C worked well and the water was hot.  I didn't have high expectations when I hotwired this hotel but it fell well short of them. Be warned that you're sharing this hotel with people who seem to be down on their luck and who are living there. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Room had a weird smell...like burnt caramel. I had to keep the curtains shut my entire stay because I was on the ground floor and people liked to stand outside my room and smoke. Light covers on closet and bathroom fixtures were missing, the closet light buzzed loudly, the light switch on one of the desk lamps was broken, one of the bedside lights didn't work, the shower head leaked, the shower drained so slow I was standing in ankle-deep water by the end of each shower. The gentleman who checked me in was awkward and unprofessional, everyone else was fine. "Breakfast" was a joke. Other than that, it was quiet, the A/C worked well and the water was hot.  I didn't have high expectations when I hotwired this hotel but it fell well short of them. Be warned that you're sharing this hotel with people who seem to be down on their luck and who are living there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r496933669-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>496933669</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Feels like home</t>
+  </si>
+  <si>
+    <t>This is my home away from home. Annie and Sue always take great care of me when I stay here. Room is always clean, comfortable bed and if I need anything else the front desk always has what I need. Also, great location to many different restaurants and quick access to highway. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>This is my home away from home. Annie and Sue always take great care of me when I stay here. Room is always clean, comfortable bed and if I need anything else the front desk always has what I need. Also, great location to many different restaurants and quick access to highway. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r467055364-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>467055364</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Served it's purpose...</t>
+  </si>
+  <si>
+    <t>We stayed here for 2 weeks. It was just ok. Nice little kitchen &amp; they supply the necessities. They accept dogs, so that's why we stayed here. There's a nice size grassy area next to the hotel and people don't pick up after their dogs. There were some questionable type people staying here, but for the most part it was quiet &amp; okay. Morning coffee wasn't the best.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r456067602-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>456067602</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing fancy </t>
+  </si>
+  <si>
+    <t>Seems old and dingy. The first room they put me in had dirty sheets and bed cover, as well as dirty counters and fridge. There was hair on the bedding!  Called the front desk, and she nonchalantly offered another room. I was exhausted, but had to gather all my things, go back downstairs and get another room. The bedding was clean, but the fridge- not really!  Otherwise, the room was ok, not bad for the money. No coffee maker. The "grab-and-go breakfast" consists of a muffin, instant oatmeal package, and coffee. Evening and morning front desk staff were very nice, but the night person was very young, and did not seem impressed with my complaint. She was helpful and got me another room, but did not care much. Doubt I would stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Seems old and dingy. The first room they put me in had dirty sheets and bed cover, as well as dirty counters and fridge. There was hair on the bedding!  Called the front desk, and she nonchalantly offered another room. I was exhausted, but had to gather all my things, go back downstairs and get another room. The bedding was clean, but the fridge- not really!  Otherwise, the room was ok, not bad for the money. No coffee maker. The "grab-and-go breakfast" consists of a muffin, instant oatmeal package, and coffee. Evening and morning front desk staff were very nice, but the night person was very young, and did not seem impressed with my complaint. She was helpful and got me another room, but did not care much. Doubt I would stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r419321607-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>419321607</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>There are surely better places...</t>
+  </si>
+  <si>
+    <t>When we made the reservation it was supposed to be a suite that I was told had a separate bedroom. It turned out it was all one room with only a half wall to separate the area. Ok. We arrived and checked in, had to ask for a luggage cart as they are kept locked up. Ok. We load it up and are on the third floor so need to use the elevator. The elevator is in what seems like the side of a closet. The cart only got in by having to push and shove it in very awkwardly. So we had to use the door hold button. This set off an alarm - which turned off but then the elevator would not work. You press the button for the third floor and nothing, we tried everything for a good 10 minutes. We were only just around a corner from the desk but no one came to help. Finally once we were all frustrated and exhausted, my husband went to get help. Then the girl went upstairs to the third floor and pressed the button from up there. It was apparent she knew it did this, it would have been nice for her to just tell us this might happen. 
+Then we got to the room and it reeked of bug spray! We opened the window and sprayed air freshener we had. We were going out to dinner so...When we made the reservation it was supposed to be a suite that I was told had a separate bedroom. It turned out it was all one room with only a half wall to separate the area. Ok. We arrived and checked in, had to ask for a luggage cart as they are kept locked up. Ok. We load it up and are on the third floor so need to use the elevator. The elevator is in what seems like the side of a closet. The cart only got in by having to push and shove it in very awkwardly. So we had to use the door hold button. This set off an alarm - which turned off but then the elevator would not work. You press the button for the third floor and nothing, we tried everything for a good 10 minutes. We were only just around a corner from the desk but no one came to help. Finally once we were all frustrated and exhausted, my husband went to get help. Then the girl went upstairs to the third floor and pressed the button from up there. It was apparent she knew it did this, it would have been nice for her to just tell us this might happen. Then we got to the room and it reeked of bug spray! We opened the window and sprayed air freshener we had. We were going out to dinner so mentioned it on the way out. No concern, just said, oh, that can't be, we don't use that stuff. Right, my eyes were burning over nothing. Back from dinner, the tub was dripping and could not get it to stop. Put a towel in it. Found garbage and toys under the bed and a dirty sock under the edge of the ironing board. The smell was a bit better. The floor in the room was strangely noisy. When you walked across it, the room shook and squeeked. We all just went to bed. We had been thinking of staying another day in the area but decided we didn't want to stay there. I told the person at the desk about some of the problems but got a blank look and a quiet oh, ok.Would not recommend staying here, it was the one sour note to our trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>When we made the reservation it was supposed to be a suite that I was told had a separate bedroom. It turned out it was all one room with only a half wall to separate the area. Ok. We arrived and checked in, had to ask for a luggage cart as they are kept locked up. Ok. We load it up and are on the third floor so need to use the elevator. The elevator is in what seems like the side of a closet. The cart only got in by having to push and shove it in very awkwardly. So we had to use the door hold button. This set off an alarm - which turned off but then the elevator would not work. You press the button for the third floor and nothing, we tried everything for a good 10 minutes. We were only just around a corner from the desk but no one came to help. Finally once we were all frustrated and exhausted, my husband went to get help. Then the girl went upstairs to the third floor and pressed the button from up there. It was apparent she knew it did this, it would have been nice for her to just tell us this might happen. 
+Then we got to the room and it reeked of bug spray! We opened the window and sprayed air freshener we had. We were going out to dinner so...When we made the reservation it was supposed to be a suite that I was told had a separate bedroom. It turned out it was all one room with only a half wall to separate the area. Ok. We arrived and checked in, had to ask for a luggage cart as they are kept locked up. Ok. We load it up and are on the third floor so need to use the elevator. The elevator is in what seems like the side of a closet. The cart only got in by having to push and shove it in very awkwardly. So we had to use the door hold button. This set off an alarm - which turned off but then the elevator would not work. You press the button for the third floor and nothing, we tried everything for a good 10 minutes. We were only just around a corner from the desk but no one came to help. Finally once we were all frustrated and exhausted, my husband went to get help. Then the girl went upstairs to the third floor and pressed the button from up there. It was apparent she knew it did this, it would have been nice for her to just tell us this might happen. Then we got to the room and it reeked of bug spray! We opened the window and sprayed air freshener we had. We were going out to dinner so mentioned it on the way out. No concern, just said, oh, that can't be, we don't use that stuff. Right, my eyes were burning over nothing. Back from dinner, the tub was dripping and could not get it to stop. Put a towel in it. Found garbage and toys under the bed and a dirty sock under the edge of the ironing board. The smell was a bit better. The floor in the room was strangely noisy. When you walked across it, the room shook and squeeked. We all just went to bed. We had been thinking of staying another day in the area but decided we didn't want to stay there. I told the person at the desk about some of the problems but got a blank look and a quiet oh, ok.Would not recommend staying here, it was the one sour note to our trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r394520082-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>394520082</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Family stay A-Ok</t>
+  </si>
+  <si>
+    <t>We opened our door to find a clean room! The friendly customer service was welcomed after a long day of driving! There are several coffee shops and restaurants all around the hotel so easy to walk to. A+We absolutely love UNEVENTFUL hotel stays! Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>We opened our door to find a clean room! The friendly customer service was welcomed after a long day of driving! There are several coffee shops and restaurants all around the hotel so easy to walk to. A+We absolutely love UNEVENTFUL hotel stays! Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r385076979-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>385076979</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Awesome place to stay</t>
+  </si>
+  <si>
+    <t>Super friendly staff, clean rooms, great service, Cheap! What else is there to say! Would definitely stay here again. Pet friendly. They are awesome here. They have small food parties for their customers. Definitely go above and beyond for their customers!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Super friendly staff, clean rooms, great service, Cheap! What else is there to say! Would definitely stay here again. Pet friendly. They are awesome here. They have small food parties for their customers. Definitely go above and beyond for their customers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r378457526-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>378457526</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>You have GOT to stay HERE!</t>
+  </si>
+  <si>
+    <t>If you want a clean room and premises, the most helpful staff anywhere, and a terrific location, you have got to stay here. I'm a 20+ year retired military officer. I have stayed in hotels all over the world; I have high standards, especially when I will be staying there for a couple of weeks. The rooms, bathrooms, laundry room, corridors, even the parking lot - immaculate. The front desk folks, maintenance people, and housekeeping staff were wonderful and did everything in their power to help make our stay problem-free. The location is amazing. Starbucks, Hooters, Anthony's Pizza, Subway, Qdoba - less than a block away. Just about every store and restaurant you can think of within a ten-minute drive. Very reasonable rates, no parking fees.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>If you want a clean room and premises, the most helpful staff anywhere, and a terrific location, you have got to stay here. I'm a 20+ year retired military officer. I have stayed in hotels all over the world; I have high standards, especially when I will be staying there for a couple of weeks. The rooms, bathrooms, laundry room, corridors, even the parking lot - immaculate. The front desk folks, maintenance people, and housekeeping staff were wonderful and did everything in their power to help make our stay problem-free. The location is amazing. Starbucks, Hooters, Anthony's Pizza, Subway, Qdoba - less than a block away. Just about every store and restaurant you can think of within a ten-minute drive. Very reasonable rates, no parking fees.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r376255297-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>376255297</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Has been my home for two years</t>
+  </si>
+  <si>
+    <t>Very friendly staff. Hotel is in very good condition and clean. Very quiet. I have stayed here for two years and have not to file any complaints. I have been very comfortable here. Hotel is in a good location lots of good restaurants and shopping close by.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r375888124-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>375888124</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>A disabled, wheelchair senior</t>
+  </si>
+  <si>
+    <t>The room is clean and usable with a kitchenette, no garbage disposal, a necessity if you have only one working hand to clean food scraps off a plate and rinse it.  There are also no drain covers available.  The doors are not wheelchair friendly without an automatic door opener.  Unless you can stand, you'll need a bath seat to shower.  No bathtub.  They advertise Disability equiped, a compliance to standards that are not wheelchair oriented.Go elsewhere if you are a wheelchair person.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r365822268-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>365822268</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>comfortable cheap but not what you expected</t>
+  </si>
+  <si>
+    <t>My boyfriend and I like to stay that hotels that have kitchens in them cause we like cooking our own meals. We expect to have dishes in our room but when got to our room there was none We read on a sign that we have to ask the front desk for and for a coffee maker and toaster.  After a long drive, that is the last thing I want to do. The rooms are okay. Also, my boyfriend told the guy at the front desk that we might have to check out early and he said that would effect your rate. I don't see how that does.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r353201834-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>353201834</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>I have been staying here for 8 months as a transition place while in between homes. The staff has been very friendly and helpful. The rates are very reasonable. I would recommend it as a good place to stay.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r341081302-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>341081302</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>What a dump!</t>
+  </si>
+  <si>
+    <t>We chose to stay here as we were building a new house which was delayed forcing us into a hotel.  With the National Western Stock Show approaching our options were limited and we ended up at the Extended Stay America.  The property is showing its age and although it is supposedly a non-smoking property the entire place smelled of smoke and on more than one occasion absolutely reeked of pot.  And then there was the staff.  Most were fairly polite with the exception of one young lady.  As we came back from dinner one evening it appeared that someone was taking down license plate numbers in the parking lot.  I approached the desk and ask if there was a policy about vehicles being parked and not moved.  She said no and ask what my concern was.  I said one of my vehicles had been parked for over a week and I didn't want to come down and find that it had been towed.  Her reply was that if it got towed it wasn't their problem.  I said, "excuse me", if it gets towed after I had asked it would be their problem.  She got defensive and started yelling at me.  An no time did I raise me voice or use any profanity.  I suggested this wasn't the way to talk to a guest who had ask a perfectly legitimate question at which time she started yelling at me that I...We chose to stay here as we were building a new house which was delayed forcing us into a hotel.  With the National Western Stock Show approaching our options were limited and we ended up at the Extended Stay America.  The property is showing its age and although it is supposedly a non-smoking property the entire place smelled of smoke and on more than one occasion absolutely reeked of pot.  And then there was the staff.  Most were fairly polite with the exception of one young lady.  As we came back from dinner one evening it appeared that someone was taking down license plate numbers in the parking lot.  I approached the desk and ask if there was a policy about vehicles being parked and not moved.  She said no and ask what my concern was.  I said one of my vehicles had been parked for over a week and I didn't want to come down and find that it had been towed.  Her reply was that if it got towed it wasn't their problem.  I said, "excuse me", if it gets towed after I had asked it would be their problem.  She got defensive and started yelling at me.  An no time did I raise me voice or use any profanity.  I suggested this wasn't the way to talk to a guest who had ask a perfectly legitimate question at which time she started yelling at me that I wasn't her father and threatened to call the police.  I've stayed in hotels for over a 1000 nights from Cairo to Sydney and have never been treated so disrespectfully by desk staff.  As I started to walk away I commented about the pervasive stench of pot on the third floor and her reply was "so what".  If it had not been for the fact the Stock Show was in progress and there were no other rooms anywhere we would have moved.  I would just as soon stay in a tent as to put up with such disgusting behavior in such a disgusting place!  One more thing....their free internet was a joke.  I've gotten better throughput with dial-upMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We chose to stay here as we were building a new house which was delayed forcing us into a hotel.  With the National Western Stock Show approaching our options were limited and we ended up at the Extended Stay America.  The property is showing its age and although it is supposedly a non-smoking property the entire place smelled of smoke and on more than one occasion absolutely reeked of pot.  And then there was the staff.  Most were fairly polite with the exception of one young lady.  As we came back from dinner one evening it appeared that someone was taking down license plate numbers in the parking lot.  I approached the desk and ask if there was a policy about vehicles being parked and not moved.  She said no and ask what my concern was.  I said one of my vehicles had been parked for over a week and I didn't want to come down and find that it had been towed.  Her reply was that if it got towed it wasn't their problem.  I said, "excuse me", if it gets towed after I had asked it would be their problem.  She got defensive and started yelling at me.  An no time did I raise me voice or use any profanity.  I suggested this wasn't the way to talk to a guest who had ask a perfectly legitimate question at which time she started yelling at me that I...We chose to stay here as we were building a new house which was delayed forcing us into a hotel.  With the National Western Stock Show approaching our options were limited and we ended up at the Extended Stay America.  The property is showing its age and although it is supposedly a non-smoking property the entire place smelled of smoke and on more than one occasion absolutely reeked of pot.  And then there was the staff.  Most were fairly polite with the exception of one young lady.  As we came back from dinner one evening it appeared that someone was taking down license plate numbers in the parking lot.  I approached the desk and ask if there was a policy about vehicles being parked and not moved.  She said no and ask what my concern was.  I said one of my vehicles had been parked for over a week and I didn't want to come down and find that it had been towed.  Her reply was that if it got towed it wasn't their problem.  I said, "excuse me", if it gets towed after I had asked it would be their problem.  She got defensive and started yelling at me.  An no time did I raise me voice or use any profanity.  I suggested this wasn't the way to talk to a guest who had ask a perfectly legitimate question at which time she started yelling at me that I wasn't her father and threatened to call the police.  I've stayed in hotels for over a 1000 nights from Cairo to Sydney and have never been treated so disrespectfully by desk staff.  As I started to walk away I commented about the pervasive stench of pot on the third floor and her reply was "so what".  If it had not been for the fact the Stock Show was in progress and there were no other rooms anywhere we would have moved.  I would just as soon stay in a tent as to put up with such disgusting behavior in such a disgusting place!  One more thing....their free internet was a joke.  I've gotten better throughput with dial-upMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r332264402-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>332264402</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>would definately stay again</t>
+  </si>
+  <si>
+    <t>would stay again, service very good, Hskpg, Lee, excellent, good value, good location, staff very helpful and friendly, laundry always available, free wifi, full size fridge, adequate parking, would stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>would stay again, service very good, Hskpg, Lee, excellent, good value, good location, staff very helpful and friendly, laundry always available, free wifi, full size fridge, adequate parking, would stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r312410677-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>312410677</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>GREAT ACCOMODATIONS AND GREAT STAFF</t>
+  </si>
+  <si>
+    <t>My stay at Extended Stay was amazing, the accommodation and Staff was perfect; I would highly recommend to anyone to stay there. From day one the Staff made me feel very welcome and treated me as part of a family.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r309333823-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>309333823</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Very nice extended stay hotel</t>
+  </si>
+  <si>
+    <t>I have stayed in a lot of hotels for extended periods and this one is very nice. I found the room to be very clean as are the grounds. It is nice having the convenience of the kitchen. The kitchen supplies that are provided are sufficient for my cooking needs and it is nice to have a full size fridge. The bed is also very comfortable and feels relatively new. I would definitely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r293861349-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>293861349</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Great pet-friendly hotel</t>
+  </si>
+  <si>
+    <t>I have been in transition and needed a place to stay before a move for several weeks.  I have a dog and the hotel is very pet friendly with green spaces around the hotel.  The staff is excellent, proactive and quick to help in any way they can.  The rooms are nice with good kitchen amenities,  a full size refrigerator, lounge chair, good bed and a good work table.  Having a laundry room and small workout room are also pluses. The only issue I have had is with irresponsible pet owners that don't clean up after their pets.  That's not a hotel issue.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r292165957-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>292165957</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Nice, clean, professional staff</t>
+  </si>
+  <si>
+    <t>Great room for the money, everything worked great, friendly and helpful staff. Great location, quite place with no riffraff. TV was great, would be nice to have more channels to choose from, but still okay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r290560509-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>290560509</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Quick Stay</t>
+  </si>
+  <si>
+    <t>I checked in around 1am, the process was quick. Room was average, clean, no smell, and quiet. The staff was helpful and pleasant. Only stayed one night but will be staying again next month. Good deal for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r268695366-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>268695366</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Nice clean place with comfortable beds. Very quiet to get a good nights sleep. Has everthing you need. I didn't need to cook so I never got the dishes that came with. Close to several restaurants within walking distance.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r253369683-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>253369683</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Great Motel</t>
+  </si>
+  <si>
+    <t>Our stay was one night only.  Room was very clean, didn't hear people talking or TV's through the wall like you do in other motels.  Had a wonderful experience except if you want ice, there is no ice machine.  Only trays in the full size refrigerator that were empty and I filled them when we checked in and they were not completely frozen by the time we wanted them.  Had to go buy a bag at a store.  Not a huge issue except for convience.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r241512704-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>241512704</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>stay here Never!!!</t>
+  </si>
+  <si>
+    <t>Manager never took care of any problems we had here . Two washer worked and they never fixed the other two and been here for three months. Ran out of toilet paper twice this week and out again . Patiently the manager don't know how to do her JOB. And only clean the rooms once a week . Been having Construction for the past week and the people done blocked half the parking lot up and ni where to park.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r215404355-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>215404355</t>
+  </si>
+  <si>
+    <t>07/14/2014</t>
+  </si>
+  <si>
+    <t>Good for the price, breakfast not quite good enough, lots of smoke</t>
+  </si>
+  <si>
+    <t>This was an adequate choice for our needs.  I must compliment the evening check in lady as very friendly and very helpful.  I like to choose a hotel with included breakfast and we got by with this, but it was extremely minimal.  Granoloa bars, red delicious apples, and oatmeal.  That's it.  Those are your choices.  I believe the property is non-smoking, but wow, they sure smoke up a storm all around the entrances.  That was a pretty noticeable negative for us.   There are lots of hotels at this intersection and in this area.  There are also lots of dining choices.  The breakfast was so poor that the second day we went to the Delectable Egg around the corner.   I might come back here, or I might try another hotel next time, I'm not sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2014</t>
+  </si>
+  <si>
+    <t>This was an adequate choice for our needs.  I must compliment the evening check in lady as very friendly and very helpful.  I like to choose a hotel with included breakfast and we got by with this, but it was extremely minimal.  Granoloa bars, red delicious apples, and oatmeal.  That's it.  Those are your choices.  I believe the property is non-smoking, but wow, they sure smoke up a storm all around the entrances.  That was a pretty noticeable negative for us.   There are lots of hotels at this intersection and in this area.  There are also lots of dining choices.  The breakfast was so poor that the second day we went to the Delectable Egg around the corner.   I might come back here, or I might try another hotel next time, I'm not sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r211584869-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>211584869</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Glad we chose this hotel</t>
+  </si>
+  <si>
+    <t>Our family of 10 stayed here coming back through from Grand Tetons and Yellowstone. It was a great choice. We enjoyed the local to many eating places within walking distance.The hotel clerk who checked us in (Austin) was extremely efficient. It was nice, quiet and clean!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r208620867-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>208620867</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>If the free wifi and breakfast are your reason for considering this hotel, go somewhere else.</t>
+  </si>
+  <si>
+    <t>I suppose this location is on par with other Extended Stay locations. However, I had some troubling experiences during my short 3-day stay here.
+Pros: 
+kitchenette in room
+Quiet
+Decent HVAC in room
+Cons: 
+Poorly trained staff
+Room smelled very smoky (and it was a non-smoking room)
+"Breakfast" was pretty bad
+Wifi VERY slow, even when I upgraded
+No dishes/utensils in room unless you specifically request them
+Horribly old, threadbare, rough towels
+No lounge area in lobby or elsewhere
+NOT wheelchair friendly (see below)
+Beds sagged visibly to one side
+I stayed here with my family while waiting for some work to be done at our house, which was nearby.
+I reserved a queen, non-smoking suite and prepaid a "non refundable" rate through expedia. When I arrived, I was told that they had only one room available, it was a handicapped room on the 3rd floor with no bathtub. I was traveling with my toddler and so was disappointed that there was not a tub in the room, but the front desk staffer swore it was the only room left, so I figured I could make it work. But when I got up to the room, it was NOT a non-smoking room, and it smelled so bad that it made my eyes water. No way was I going to stay in that room.
+I called the front desk and told them that they needed to find me another room or...I suppose this location is on par with other Extended Stay locations. However, I had some troubling experiences during my short 3-day stay here.Pros: kitchenette in roomQuietDecent HVAC in roomCons: Poorly trained staffRoom smelled very smoky (and it was a non-smoking room)"Breakfast" was pretty badWifi VERY slow, even when I upgradedNo dishes/utensils in room unless you specifically request themHorribly old, threadbare, rough towelsNo lounge area in lobby or elsewhereNOT wheelchair friendly (see below)Beds sagged visibly to one sideI stayed here with my family while waiting for some work to be done at our house, which was nearby.I reserved a queen, non-smoking suite and prepaid a "non refundable" rate through expedia. When I arrived, I was told that they had only one room available, it was a handicapped room on the 3rd floor with no bathtub. I was traveling with my toddler and so was disappointed that there was not a tub in the room, but the front desk staffer swore it was the only room left, so I figured I could make it work. But when I got up to the room, it was NOT a non-smoking room, and it smelled so bad that it made my eyes water. No way was I going to stay in that room.I called the front desk and told them that they needed to find me another room or refund my money. Amazingly, they found another room available, which means that the guy at the front desk blatantly lied several times earlier when he said they were completely booked.The new room, also on the 3rd floor, still smelled bad in the bathroom and the beds both sagged to one side, but it was clean and everything worked, plus it had a tub. Yay!I unloaded the car in the pouring rain (note: NO covered drive at the front door) and loaded everything onto a luggage cart. There was not an automatic handicapped access door, so I struggled to get everything through two sets of stairs. Note I saw several people struggle with these doors during my stay. Got to my room, and my husband and daughter and I had a couple of uneventful nights in the hotel. It was pleasantly quiet at night, and the fridge made some nice white noise. However, the towels were so threadbare and rough that I think they could be used for exfoliating. The breakfast was also extremely disappointing. It consisted of pre-packaged muffins, cereal bars, and oatmeal packets, apples  &amp; oranges, and coffee. NO juice, milk, cereal, bagels, or any other kid-friendly foods.Our third scheduled night there, we found out that our house was ready and decided to go back home and sleep in our own beds. I went back about 8:30pm to pack up our belongings, and while I was there, the fire alarm went off in the hotel. Everyone had to evacuate to the parking lot. When the fire department arrived, they could not find any staff members. The one staff person on duty had not been trained on what to do in this situation, and so he was still in the hotel instead of being outside where they could communicate with him to clear the building. At this point, I'd like to say that I don't think this hotel is appropriately equipped for guests in wheelchairs. Besides the fact that there are no automatic doors, there is also a huge danger to these guests in the event of a fire. They have handicap-accessible rooms on the 2nd and 3rd floor, but when that fire alarm went off, the large, heavy fire doors to the elevator slammed shut. That would have trapped anyone on those floors who was traveling alone and couldn't use the stairs.Once we we're let back into the building (although the very loud alarm was still going off), I packed up the rest of my belongings and thanked my lucky stars that we had taken our toddler home instead of putting her to bed at the hotel... That alarm surely would have made for a rough night!There's a chance we'll need another place to stay in the near future, but I'd rather pay a little extra to stay at a decent hotel with actual amenities next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded June 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2014</t>
+  </si>
+  <si>
+    <t>I suppose this location is on par with other Extended Stay locations. However, I had some troubling experiences during my short 3-day stay here.
+Pros: 
+kitchenette in room
+Quiet
+Decent HVAC in room
+Cons: 
+Poorly trained staff
+Room smelled very smoky (and it was a non-smoking room)
+"Breakfast" was pretty bad
+Wifi VERY slow, even when I upgraded
+No dishes/utensils in room unless you specifically request them
+Horribly old, threadbare, rough towels
+No lounge area in lobby or elsewhere
+NOT wheelchair friendly (see below)
+Beds sagged visibly to one side
+I stayed here with my family while waiting for some work to be done at our house, which was nearby.
+I reserved a queen, non-smoking suite and prepaid a "non refundable" rate through expedia. When I arrived, I was told that they had only one room available, it was a handicapped room on the 3rd floor with no bathtub. I was traveling with my toddler and so was disappointed that there was not a tub in the room, but the front desk staffer swore it was the only room left, so I figured I could make it work. But when I got up to the room, it was NOT a non-smoking room, and it smelled so bad that it made my eyes water. No way was I going to stay in that room.
+I called the front desk and told them that they needed to find me another room or...I suppose this location is on par with other Extended Stay locations. However, I had some troubling experiences during my short 3-day stay here.Pros: kitchenette in roomQuietDecent HVAC in roomCons: Poorly trained staffRoom smelled very smoky (and it was a non-smoking room)"Breakfast" was pretty badWifi VERY slow, even when I upgradedNo dishes/utensils in room unless you specifically request themHorribly old, threadbare, rough towelsNo lounge area in lobby or elsewhereNOT wheelchair friendly (see below)Beds sagged visibly to one sideI stayed here with my family while waiting for some work to be done at our house, which was nearby.I reserved a queen, non-smoking suite and prepaid a "non refundable" rate through expedia. When I arrived, I was told that they had only one room available, it was a handicapped room on the 3rd floor with no bathtub. I was traveling with my toddler and so was disappointed that there was not a tub in the room, but the front desk staffer swore it was the only room left, so I figured I could make it work. But when I got up to the room, it was NOT a non-smoking room, and it smelled so bad that it made my eyes water. No way was I going to stay in that room.I called the front desk and told them that they needed to find me another room or refund my money. Amazingly, they found another room available, which means that the guy at the front desk blatantly lied several times earlier when he said they were completely booked.The new room, also on the 3rd floor, still smelled bad in the bathroom and the beds both sagged to one side, but it was clean and everything worked, plus it had a tub. Yay!I unloaded the car in the pouring rain (note: NO covered drive at the front door) and loaded everything onto a luggage cart. There was not an automatic handicapped access door, so I struggled to get everything through two sets of stairs. Note I saw several people struggle with these doors during my stay. Got to my room, and my husband and daughter and I had a couple of uneventful nights in the hotel. It was pleasantly quiet at night, and the fridge made some nice white noise. However, the towels were so threadbare and rough that I think they could be used for exfoliating. The breakfast was also extremely disappointing. It consisted of pre-packaged muffins, cereal bars, and oatmeal packets, apples  &amp; oranges, and coffee. NO juice, milk, cereal, bagels, or any other kid-friendly foods.Our third scheduled night there, we found out that our house was ready and decided to go back home and sleep in our own beds. I went back about 8:30pm to pack up our belongings, and while I was there, the fire alarm went off in the hotel. Everyone had to evacuate to the parking lot. When the fire department arrived, they could not find any staff members. The one staff person on duty had not been trained on what to do in this situation, and so he was still in the hotel instead of being outside where they could communicate with him to clear the building. At this point, I'd like to say that I don't think this hotel is appropriately equipped for guests in wheelchairs. Besides the fact that there are no automatic doors, there is also a huge danger to these guests in the event of a fire. They have handicap-accessible rooms on the 2nd and 3rd floor, but when that fire alarm went off, the large, heavy fire doors to the elevator slammed shut. That would have trapped anyone on those floors who was traveling alone and couldn't use the stairs.Once we we're let back into the building (although the very loud alarm was still going off), I packed up the rest of my belongings and thanked my lucky stars that we had taken our toddler home instead of putting her to bed at the hotel... That alarm surely would have made for a rough night!There's a chance we'll need another place to stay in the near future, but I'd rather pay a little extra to stay at a decent hotel with actual amenities next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r194422491-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>194422491</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Not for 1 or 2 night stays</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the Extended Stay America - Denver - Westminster on the way back from our ski vacation.  Overall this hotel just wasn't for us.  We were just staying there for one night and would not recommend this property for that type of stay.  The staff was friendly and tried to be accommodating but we were told the incorrect location of our room upon check-in which resulted in us parking at the wrong door and having to lug our luggage through the entire building.  Seems like the front desk staff should know the location of their rooms.  The one positive for the hotel was that the rooms did seem nice and clean.  However, 1 of our rooms smelled so badly of chicken ramen noodles we could barely handle it.  The other room smelled of smoke even though the entire facility was smoke-free.  One other complaint was the amount of smokers at the entrances.  It was hard to escape the smell and it really bothered me that the side entrance door was propped open with a rock which I assume was placed there by someone outside to smoke.  We were also uncomfortable with some of the residents of this hotel and their behavior.  Just a really weird overall stay and we are all glad it is over.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the Extended Stay America - Denver - Westminster on the way back from our ski vacation.  Overall this hotel just wasn't for us.  We were just staying there for one night and would not recommend this property for that type of stay.  The staff was friendly and tried to be accommodating but we were told the incorrect location of our room upon check-in which resulted in us parking at the wrong door and having to lug our luggage through the entire building.  Seems like the front desk staff should know the location of their rooms.  The one positive for the hotel was that the rooms did seem nice and clean.  However, 1 of our rooms smelled so badly of chicken ramen noodles we could barely handle it.  The other room smelled of smoke even though the entire facility was smoke-free.  One other complaint was the amount of smokers at the entrances.  It was hard to escape the smell and it really bothered me that the side entrance door was propped open with a rock which I assume was placed there by someone outside to smoke.  We were also uncomfortable with some of the residents of this hotel and their behavior.  Just a really weird overall stay and we are all glad it is over.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r190533604-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>190533604</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Employees provide top-notch customer care!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here in September of last year for several weeks, and the employees went out of their way consistently to ensure we were getting our money's worth. They provided supplies when we asked for them, and even provided recommendations for restaurants. They gave us directions to different destinations, since we were new to the area. Scott &amp; TJ were especially helpful, and they did their jobs very professionally, in addition to being genuinely interested in our well-being. The room was adequate, the small kitchenette was very cramped and efficient. No oven, so forget baking a pizza! Definitely compact &amp; "bare bones", but sufficient for our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded January 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here in September of last year for several weeks, and the employees went out of their way consistently to ensure we were getting our money's worth. They provided supplies when we asked for them, and even provided recommendations for restaurants. They gave us directions to different destinations, since we were new to the area. Scott &amp; TJ were especially helpful, and they did their jobs very professionally, in addition to being genuinely interested in our well-being. The room was adequate, the small kitchenette was very cramped and efficient. No oven, so forget baking a pizza! Definitely compact &amp; "bare bones", but sufficient for our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r180695568-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>180695568</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay America Westminister CO</t>
+  </si>
+  <si>
+    <t>Two of us stayed at this hotel for three months and have never met a more earnest, desire-to-be-helpful, staff anywhere.  If we had a need they could answer, it was done immediately and with a superb attitude (even turning on A/C in the laundry room when I was observed pulling off my sweater.) The hotel itself was adequate with newer carpeting and an elevator, and fresh linens, including the bedspread and blanket (the latter two were in plastic when they were brought to the room, but the sheets and towels show they have been used many times (not ragged, but "broken in." ) The Kitchenette is tight with a bar sink in the corner, making it difficult to wash the two ea. forks, spoons, knives,  plates, bowls, coffee cups and plastic glasses.  There is a sharper knife, can open and a colander and two pots, a small coffee maker and a toaster.  After using the frying pan to cook eggs, I had to use a steel wool scrub pad and hard scrubbing to clean it.  (I went to Tuesday Mornings and bought kitchen ware.) Being accustomed to breakfast at Holiday Inn Express, I was shocked at the apple or breakfast bar offering here.  The bed was great, the sofa had seen much better days, and was quite uncomfortable.  The a/c was a bit harsh-- too cool or too warm.  On a very positive note, renovations are to start renovations are...Two of us stayed at this hotel for three months and have never met a more earnest, desire-to-be-helpful, staff anywhere.  If we had a need they could answer, it was done immediately and with a superb attitude (even turning on A/C in the laundry room when I was observed pulling off my sweater.) The hotel itself was adequate with newer carpeting and an elevator, and fresh linens, including the bedspread and blanket (the latter two were in plastic when they were brought to the room, but the sheets and towels show they have been used many times (not ragged, but "broken in." ) The Kitchenette is tight with a bar sink in the corner, making it difficult to wash the two ea. forks, spoons, knives,  plates, bowls, coffee cups and plastic glasses.  There is a sharper knife, can open and a colander and two pots, a small coffee maker and a toaster.  After using the frying pan to cook eggs, I had to use a steel wool scrub pad and hard scrubbing to clean it.  (I went to Tuesday Mornings and bought kitchen ware.) Being accustomed to breakfast at Holiday Inn Express, I was shocked at the apple or breakfast bar offering here.  The bed was great, the sofa had seen much better days, and was quite uncomfortable.  The a/c was a bit harsh-- too cool or too warm.  On a very positive note, renovations are to start renovations are to start here next month, and I am sure that many of the items will be corrected.  For future clients' sake, I hope that they do not correct the water flow in the shower-- I had not had a shower this wonderful since water restricting showers became the norm!  It seems that many of the concerns from the years ago have been addressed.  It would be helpful if a new luggage cart replaced the one that is there, but I was able to manage with the old one that didn't have hooks for bags like newer models.  My only "complaint" is the residents' smoking at the entry ways and you can't escape the smoke at the elevator nor at the entries.  We were here along with residents displaced by the CO flood, and workers due to the flood.  I found all the residents to be quite nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded November 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2013</t>
+  </si>
+  <si>
+    <t>Two of us stayed at this hotel for three months and have never met a more earnest, desire-to-be-helpful, staff anywhere.  If we had a need they could answer, it was done immediately and with a superb attitude (even turning on A/C in the laundry room when I was observed pulling off my sweater.) The hotel itself was adequate with newer carpeting and an elevator, and fresh linens, including the bedspread and blanket (the latter two were in plastic when they were brought to the room, but the sheets and towels show they have been used many times (not ragged, but "broken in." ) The Kitchenette is tight with a bar sink in the corner, making it difficult to wash the two ea. forks, spoons, knives,  plates, bowls, coffee cups and plastic glasses.  There is a sharper knife, can open and a colander and two pots, a small coffee maker and a toaster.  After using the frying pan to cook eggs, I had to use a steel wool scrub pad and hard scrubbing to clean it.  (I went to Tuesday Mornings and bought kitchen ware.) Being accustomed to breakfast at Holiday Inn Express, I was shocked at the apple or breakfast bar offering here.  The bed was great, the sofa had seen much better days, and was quite uncomfortable.  The a/c was a bit harsh-- too cool or too warm.  On a very positive note, renovations are to start renovations are...Two of us stayed at this hotel for three months and have never met a more earnest, desire-to-be-helpful, staff anywhere.  If we had a need they could answer, it was done immediately and with a superb attitude (even turning on A/C in the laundry room when I was observed pulling off my sweater.) The hotel itself was adequate with newer carpeting and an elevator, and fresh linens, including the bedspread and blanket (the latter two were in plastic when they were brought to the room, but the sheets and towels show they have been used many times (not ragged, but "broken in." ) The Kitchenette is tight with a bar sink in the corner, making it difficult to wash the two ea. forks, spoons, knives,  plates, bowls, coffee cups and plastic glasses.  There is a sharper knife, can open and a colander and two pots, a small coffee maker and a toaster.  After using the frying pan to cook eggs, I had to use a steel wool scrub pad and hard scrubbing to clean it.  (I went to Tuesday Mornings and bought kitchen ware.) Being accustomed to breakfast at Holiday Inn Express, I was shocked at the apple or breakfast bar offering here.  The bed was great, the sofa had seen much better days, and was quite uncomfortable.  The a/c was a bit harsh-- too cool or too warm.  On a very positive note, renovations are to start renovations are to start here next month, and I am sure that many of the items will be corrected.  For future clients' sake, I hope that they do not correct the water flow in the shower-- I had not had a shower this wonderful since water restricting showers became the norm!  It seems that many of the concerns from the years ago have been addressed.  It would be helpful if a new luggage cart replaced the one that is there, but I was able to manage with the old one that didn't have hooks for bags like newer models.  My only "complaint" is the residents' smoking at the entry ways and you can't escape the smoke at the elevator nor at the entries.  We were here along with residents displaced by the CO flood, and workers due to the flood.  I found all the residents to be quite nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r169418343-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>169418343</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>The whole property is non-smoking, but our room smelled of cigarette smoke. They could not give us another room so we ended up checking out and leaving right away. They did give us a full refund. The place feels a little tired; the counter at the check-in is a bit beat up and the bathroom door in the room could not close all the way.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>The whole property is non-smoking, but our room smelled of cigarette smoke. They could not give us another room so we ended up checking out and leaving right away. They did give us a full refund. The place feels a little tired; the counter at the check-in is a bit beat up and the bathroom door in the room could not close all the way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r166223421-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>166223421</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Good Value, Great Location</t>
+  </si>
+  <si>
+    <t>I have been living here for 3 weeks and have another week to go, and overall my stay has been excellent. Check-in was a breeze, paying my weekly "rent" consists of signing a receipt and returning it back to the front desk, and the location is very convenient for getting to I-25 or Highway 36. Ample parking space, walking distance to Hooters, Perkins, CB &amp; Potts, and lots of grocery stores down the street. I have been doing my laundry off-site at a laundromat, better deal and faster wash/dry times. The kitchenette has everything you need to get by: full size fridge/freezer, microwave, stove, sink, coffee maker, toaster, and cabinets with pot, pan, dishes, glasses, and silverware (including can opener!). The room is adequate with plenty of closet space, desk, table, lamps, bed, dresser, recliner chair, phone, and wireless internet. Even for being non-high-speed internet, I have been able to stream Netflix throughout the day with little/no buffering at standard def, so no real complaints there. The A/C works perfectly in the summer heat and the shower will stay hot as long as you need it (much hotter than I would ever use in fact). All I've really had to buy on my own to live here is soap/shampoo, dishwashing soap, paper towels, and extra clothes hangers. Otherwise you really are good to go, the maid service cleans the room once per week and gives you fresh towels and bedding....I have been living here for 3 weeks and have another week to go, and overall my stay has been excellent. Check-in was a breeze, paying my weekly "rent" consists of signing a receipt and returning it back to the front desk, and the location is very convenient for getting to I-25 or Highway 36. Ample parking space, walking distance to Hooters, Perkins, CB &amp; Potts, and lots of grocery stores down the street. I have been doing my laundry off-site at a laundromat, better deal and faster wash/dry times. The kitchenette has everything you need to get by: full size fridge/freezer, microwave, stove, sink, coffee maker, toaster, and cabinets with pot, pan, dishes, glasses, and silverware (including can opener!). The room is adequate with plenty of closet space, desk, table, lamps, bed, dresser, recliner chair, phone, and wireless internet. Even for being non-high-speed internet, I have been able to stream Netflix throughout the day with little/no buffering at standard def, so no real complaints there. The A/C works perfectly in the summer heat and the shower will stay hot as long as you need it (much hotter than I would ever use in fact). All I've really had to buy on my own to live here is soap/shampoo, dishwashing soap, paper towels, and extra clothes hangers. Otherwise you really are good to go, the maid service cleans the room once per week and gives you fresh towels and bedding. I only have a few complaints and they are pretty minor. The breakfast is nothing to get excited about: coffee, prepackaged Otis Spunkmeyer muffins, and granola bars. I've been eating breakfast in my room anyways, so no big deal. The sink does not have a garbage disposal which again, you might not expect it to, but it definitely would come in handy when cleaning dishes up from dinner, etc. And finally, overall the place is just kinda old, outdated, and smelly. Not to a degree where you feel unsafe or anything, it just could use a good facelift on the inside. The rooms have nice widescreen TVs, but otherwise it's just a very mediocre, bland place. The hallways and stairways have a very distinct odor to them, I would describe it as decades-old cigarette smoke mixed with cheap cleaning solution. Thankfully it is not as noticeable in the room, but once you walk out it's unmistakable. The elevator reeks of cigarette smoke as well. Oh, and the "fitness center" actually made me laugh when I saw it. It's in a tiny room on the 1st floor and contains one treadmill, one elliptical, and one other machine that are all covered in dust and look to be circa-1985. Obviously nobody has used them in ages, and I don't blame them. I ended up joining a 24-Hour Fitness down the road for a month for just forty bucks and use that every day. Again, for what you pay here, you can't expect the best of the best, it's all part of their business model...just don't come here if you won't settle for anything less than a Hampton Inn or Hilton-esque hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2013</t>
+  </si>
+  <si>
+    <t>I have been living here for 3 weeks and have another week to go, and overall my stay has been excellent. Check-in was a breeze, paying my weekly "rent" consists of signing a receipt and returning it back to the front desk, and the location is very convenient for getting to I-25 or Highway 36. Ample parking space, walking distance to Hooters, Perkins, CB &amp; Potts, and lots of grocery stores down the street. I have been doing my laundry off-site at a laundromat, better deal and faster wash/dry times. The kitchenette has everything you need to get by: full size fridge/freezer, microwave, stove, sink, coffee maker, toaster, and cabinets with pot, pan, dishes, glasses, and silverware (including can opener!). The room is adequate with plenty of closet space, desk, table, lamps, bed, dresser, recliner chair, phone, and wireless internet. Even for being non-high-speed internet, I have been able to stream Netflix throughout the day with little/no buffering at standard def, so no real complaints there. The A/C works perfectly in the summer heat and the shower will stay hot as long as you need it (much hotter than I would ever use in fact). All I've really had to buy on my own to live here is soap/shampoo, dishwashing soap, paper towels, and extra clothes hangers. Otherwise you really are good to go, the maid service cleans the room once per week and gives you fresh towels and bedding....I have been living here for 3 weeks and have another week to go, and overall my stay has been excellent. Check-in was a breeze, paying my weekly "rent" consists of signing a receipt and returning it back to the front desk, and the location is very convenient for getting to I-25 or Highway 36. Ample parking space, walking distance to Hooters, Perkins, CB &amp; Potts, and lots of grocery stores down the street. I have been doing my laundry off-site at a laundromat, better deal and faster wash/dry times. The kitchenette has everything you need to get by: full size fridge/freezer, microwave, stove, sink, coffee maker, toaster, and cabinets with pot, pan, dishes, glasses, and silverware (including can opener!). The room is adequate with plenty of closet space, desk, table, lamps, bed, dresser, recliner chair, phone, and wireless internet. Even for being non-high-speed internet, I have been able to stream Netflix throughout the day with little/no buffering at standard def, so no real complaints there. The A/C works perfectly in the summer heat and the shower will stay hot as long as you need it (much hotter than I would ever use in fact). All I've really had to buy on my own to live here is soap/shampoo, dishwashing soap, paper towels, and extra clothes hangers. Otherwise you really are good to go, the maid service cleans the room once per week and gives you fresh towels and bedding. I only have a few complaints and they are pretty minor. The breakfast is nothing to get excited about: coffee, prepackaged Otis Spunkmeyer muffins, and granola bars. I've been eating breakfast in my room anyways, so no big deal. The sink does not have a garbage disposal which again, you might not expect it to, but it definitely would come in handy when cleaning dishes up from dinner, etc. And finally, overall the place is just kinda old, outdated, and smelly. Not to a degree where you feel unsafe or anything, it just could use a good facelift on the inside. The rooms have nice widescreen TVs, but otherwise it's just a very mediocre, bland place. The hallways and stairways have a very distinct odor to them, I would describe it as decades-old cigarette smoke mixed with cheap cleaning solution. Thankfully it is not as noticeable in the room, but once you walk out it's unmistakable. The elevator reeks of cigarette smoke as well. Oh, and the "fitness center" actually made me laugh when I saw it. It's in a tiny room on the 1st floor and contains one treadmill, one elliptical, and one other machine that are all covered in dust and look to be circa-1985. Obviously nobody has used them in ages, and I don't blame them. I ended up joining a 24-Hour Fitness down the road for a month for just forty bucks and use that every day. Again, for what you pay here, you can't expect the best of the best, it's all part of their business model...just don't come here if you won't settle for anything less than a Hampton Inn or Hilton-esque hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r164797937-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>164797937</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Excellent for Long-Term</t>
+  </si>
+  <si>
+    <t>I am a little late in getting this review up, but better late than never.  I stayed here in January for three months while I was getting additional training in my job.  At that time Sue was the manager.  She assembled a great team and everyone was very helpful for my concerns.  My requests were always dealt with in a timely manner.  My room was exceptionally quiet.  Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2013</t>
+  </si>
+  <si>
+    <t>I am a little late in getting this review up, but better late than never.  I stayed here in January for three months while I was getting additional training in my job.  At that time Sue was the manager.  She assembled a great team and everyone was very helpful for my concerns.  My requests were always dealt with in a timely manner.  My room was exceptionally quiet.  Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r158191515-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>158191515</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Great stay.</t>
+  </si>
+  <si>
+    <t>Was working overnights and had no problem sleeping during the day. Nice and quiet. Friendly staff, great rooms and fantastic rates. Very busy . So  plan ahead. Stayed off and on for Almost two months. Great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2013</t>
+  </si>
+  <si>
+    <t>Was working overnights and had no problem sleeping during the day. Nice and quiet. Friendly staff, great rooms and fantastic rates. Very busy . So  plan ahead. Stayed off and on for Almost two months. Great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r157114030-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>157114030</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Great Long Term Stay</t>
+  </si>
+  <si>
+    <t>This was my first trip away from home for more than a week.  I was going to be at this hotel for about three months on assignment.  The staff were great from the start.  The rate was great and saved me plenty on my per-diem.  The rooms were clean and up to date. They also had wonderful laundry facilities.  The staff was very knowledgable on local dining and places to check out.  Very close to Bass pro sHops and Sportsmans Warehouse which was great for me.  If you need a place to stay for a day or a few months this is it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>This was my first trip away from home for more than a week.  I was going to be at this hotel for about three months on assignment.  The staff were great from the start.  The rate was great and saved me plenty on my per-diem.  The rooms were clean and up to date. They also had wonderful laundry facilities.  The staff was very knowledgable on local dining and places to check out.  Very close to Bass pro sHops and Sportsmans Warehouse which was great for me.  If you need a place to stay for a day or a few months this is it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r155459743-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>155459743</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>Home Away From Home!!!</t>
+  </si>
+  <si>
+    <t>Me And My Husband was so pleased with our stay at the extended stay!!!Our daughter booked us a room for the week since we were coming to visit our family in Colorado!!!I must say the staff at the front desk,Katie,tj,Becky,Are such great people to be around they make you feel so at home!!Sue the mgr is one in a million she goes out of her way to make her guest feel so comfortable and always has a smile when we see her!!!I would for sure stay at this hotel next time we are in Colorado and will tell the rest of our family and friends that comes to visit Colorado to stay at the extended stay in Westminster! !Truly the best hotel I've stayed at in along time!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Me And My Husband was so pleased with our stay at the extended stay!!!Our daughter booked us a room for the week since we were coming to visit our family in Colorado!!!I must say the staff at the front desk,Katie,tj,Becky,Are such great people to be around they make you feel so at home!!Sue the mgr is one in a million she goes out of her way to make her guest feel so comfortable and always has a smile when we see her!!!I would for sure stay at this hotel next time we are in Colorado and will tell the rest of our family and friends that comes to visit Colorado to stay at the extended stay in Westminster! !Truly the best hotel I've stayed at in along time!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r151642063-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>151642063</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>Stayed for 1 month</t>
+  </si>
+  <si>
+    <t>I was here for one month in January. I was not sure about this extended stay as I was registered at savannah inn across the street for 800/ month.  Thanks to trip advisor, I changed to Extended stay and made the right choice. The room was clean, dished were provided ( even though I have my own). The bath water was hot and lasted as long as I needed. I had issues with the dryer as the info sheet said the washer was 30 minute and dryer was for an hour... Not true, so I was refunded. At the end the first washer machine by the door ate a quarter... I didn't say anything. I stay at the Clarion in las vegas get 2 beds for 39.95 and get room service everyday - here I paid 50.00 a night for 1 bed with room service 1 x a week.  I think this hotel could give us a 2x a week cleaning. I felt safe and comfortable. My only real problem was the smokers that smoked in the foyer, and at the side door. I was in room 104 and it drifted in several times. Huge gap under the room door and I got 2 migraines. The hotel did cut me some sponge strips and the worked. Also, at the end of my stay, the manager helped me stay an extra night without moving to another room. ( they were sold...I was here for one month in January. I was not sure about this extended stay as I was registered at savannah inn across the street for 800/ month.  Thanks to trip advisor, I changed to Extended stay and made the right choice. The room was clean, dished were provided ( even though I have my own). The bath water was hot and lasted as long as I needed. I had issues with the dryer as the info sheet said the washer was 30 minute and dryer was for an hour... Not true, so I was refunded. At the end the first washer machine by the door ate a quarter... I didn't say anything. I stay at the Clarion in las vegas get 2 beds for 39.95 and get room service everyday - here I paid 50.00 a night for 1 bed with room service 1 x a week.  I think this hotel could give us a 2x a week cleaning. I felt safe and comfortable. My only real problem was the smokers that smoked in the foyer, and at the side door. I was in room 104 and it drifted in several times. Huge gap under the room door and I got 2 migraines. The hotel did cut me some sponge strips and the worked. Also, at the end of my stay, the manager helped me stay an extra night without moving to another room. ( they were sold out) I am really happy I stayed at this hotel. :)  the customer service was always warm and friendly. I look forward to staying here again. This is way better than my rv. LolMoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded February 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2013</t>
+  </si>
+  <si>
+    <t>I was here for one month in January. I was not sure about this extended stay as I was registered at savannah inn across the street for 800/ month.  Thanks to trip advisor, I changed to Extended stay and made the right choice. The room was clean, dished were provided ( even though I have my own). The bath water was hot and lasted as long as I needed. I had issues with the dryer as the info sheet said the washer was 30 minute and dryer was for an hour... Not true, so I was refunded. At the end the first washer machine by the door ate a quarter... I didn't say anything. I stay at the Clarion in las vegas get 2 beds for 39.95 and get room service everyday - here I paid 50.00 a night for 1 bed with room service 1 x a week.  I think this hotel could give us a 2x a week cleaning. I felt safe and comfortable. My only real problem was the smokers that smoked in the foyer, and at the side door. I was in room 104 and it drifted in several times. Huge gap under the room door and I got 2 migraines. The hotel did cut me some sponge strips and the worked. Also, at the end of my stay, the manager helped me stay an extra night without moving to another room. ( they were sold...I was here for one month in January. I was not sure about this extended stay as I was registered at savannah inn across the street for 800/ month.  Thanks to trip advisor, I changed to Extended stay and made the right choice. The room was clean, dished were provided ( even though I have my own). The bath water was hot and lasted as long as I needed. I had issues with the dryer as the info sheet said the washer was 30 minute and dryer was for an hour... Not true, so I was refunded. At the end the first washer machine by the door ate a quarter... I didn't say anything. I stay at the Clarion in las vegas get 2 beds for 39.95 and get room service everyday - here I paid 50.00 a night for 1 bed with room service 1 x a week.  I think this hotel could give us a 2x a week cleaning. I felt safe and comfortable. My only real problem was the smokers that smoked in the foyer, and at the side door. I was in room 104 and it drifted in several times. Huge gap under the room door and I got 2 migraines. The hotel did cut me some sponge strips and the worked. Also, at the end of my stay, the manager helped me stay an extra night without moving to another room. ( they were sold out) I am really happy I stayed at this hotel. :)  the customer service was always warm and friendly. I look forward to staying here again. This is way better than my rv. LolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r150223850-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>150223850</t>
+  </si>
+  <si>
+    <t>01/21/2013</t>
+  </si>
+  <si>
+    <t>The sincerity and promptness of the staff and treating our stay like home is why I will always choose Extended Stay.</t>
+  </si>
+  <si>
+    <t>During our stay the cleanliness of the room due to Liliana and Vickie was excellent. The Staff was always smiling and considerate. Evening staff i.e. T.J. are always great examples of customer service reps.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded January 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2013</t>
+  </si>
+  <si>
+    <t>During our stay the cleanliness of the room due to Liliana and Vickie was excellent. The Staff was always smiling and considerate. Evening staff i.e. T.J. are always great examples of customer service reps.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r150058238-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>150058238</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>Just like home!</t>
+  </si>
+  <si>
+    <t>The staff at this hotel goes out of their way to accommodate the needs of all guests.  Ellie and Katie work the front desk in the daytime hours and are always polite with a big smile to greet you.  T.J. works mostly at night and he goes above and beyond to make sure we feel at home.  Anything we need, T.J. is always there to make sure we have it. Sue the manager does a great job with her staff obviously!  I would not stay anywhere else in the area.  This particular hotel is always clean and by far gives the best customer service in town!MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>The staff at this hotel goes out of their way to accommodate the needs of all guests.  Ellie and Katie work the front desk in the daytime hours and are always polite with a big smile to greet you.  T.J. works mostly at night and he goes above and beyond to make sure we feel at home.  Anything we need, T.J. is always there to make sure we have it. Sue the manager does a great job with her staff obviously!  I would not stay anywhere else in the area.  This particular hotel is always clean and by far gives the best customer service in town!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r143995271-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>143995271</t>
+  </si>
+  <si>
+    <t>10/29/2012</t>
+  </si>
+  <si>
+    <t>Good deal</t>
+  </si>
+  <si>
+    <t>What a nice experience it was staying at this hotel.  The staff was very pleasant and accommodating.   We had a very loud refrigerator and we told the front desk the next day when we returned from being out, and within 15 minutes someone was there and repaired it.The room was a nice size and it was very clean.  The hotel does need some updating.  The rugs are old and stained, but so what.  Great location also.  Would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded October 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2012</t>
+  </si>
+  <si>
+    <t>What a nice experience it was staying at this hotel.  The staff was very pleasant and accommodating.   We had a very loud refrigerator and we told the front desk the next day when we returned from being out, and within 15 minutes someone was there and repaired it.The room was a nice size and it was very clean.  The hotel does need some updating.  The rugs are old and stained, but so what.  Great location also.  Would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r139284978-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>139284978</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>With Service in Mind</t>
+  </si>
+  <si>
+    <t>The manager and her staff go to the heights of the word service to accomidate the needs and desires of their guests.  They always have our best interest in mind, and do all they can to assist you; whether it is the importance of mail and letting you know, to faxing for you, and just plain out helping you. The housekeeping and maintence staff does a fine job, and asks if there is anything you need, and always... has a smile and a cheery hello.  The front desk staff does a great job in being there and helping everyone on a continuous basis, even when they are busy with many tasks. Sue the manager is a very kind lady, with a great disposition, and has an answer to your questions and if she doesn't she will find out and call you with the answer. The rooms are good (we have been here twice for at least three months each time and NEVER seen a bug of any kind) and everything works well and if not it is fix and or replaced right away.  There are many old things being replce with new, like all new beds which are VERY comfortable, and new speads and New HD TVs, and the Laundry is excellent.  We are moving to Denver perminately and in moving it takes time to get established and find the right home, and in the mean time while we are...The manager and her staff go to the heights of the word service to accomidate the needs and desires of their guests.  They always have our best interest in mind, and do all they can to assist you; whether it is the importance of mail and letting you know, to faxing for you, and just plain out helping you. The housekeeping and maintence staff does a fine job, and asks if there is anything you need, and always... has a smile and a cheery hello.  The front desk staff does a great job in being there and helping everyone on a continuous basis, even when they are busy with many tasks. Sue the manager is a very kind lady, with a great disposition, and has an answer to your questions and if she doesn't she will find out and call you with the answer. The rooms are good (we have been here twice for at least three months each time and NEVER seen a bug of any kind) and everything works well and if not it is fix and or replaced right away.  There are many old things being replce with new, like all new beds which are VERY comfortable, and new speads and New HD TVs, and the Laundry is excellent.  We are moving to Denver perminately and in moving it takes time to get established and find the right home, and in the mean time while we are looking we feel very welcomed here and treated like family and when we leave will remember our stay here fondly.  We would highly recommend Extended Stay America in Westminister to any and all whether for a few days or a few months.  Thank you Sue and everyone...The RehfieldsMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>The manager and her staff go to the heights of the word service to accomidate the needs and desires of their guests.  They always have our best interest in mind, and do all they can to assist you; whether it is the importance of mail and letting you know, to faxing for you, and just plain out helping you. The housekeeping and maintence staff does a fine job, and asks if there is anything you need, and always... has a smile and a cheery hello.  The front desk staff does a great job in being there and helping everyone on a continuous basis, even when they are busy with many tasks. Sue the manager is a very kind lady, with a great disposition, and has an answer to your questions and if she doesn't she will find out and call you with the answer. The rooms are good (we have been here twice for at least three months each time and NEVER seen a bug of any kind) and everything works well and if not it is fix and or replaced right away.  There are many old things being replce with new, like all new beds which are VERY comfortable, and new speads and New HD TVs, and the Laundry is excellent.  We are moving to Denver perminately and in moving it takes time to get established and find the right home, and in the mean time while we are...The manager and her staff go to the heights of the word service to accomidate the needs and desires of their guests.  They always have our best interest in mind, and do all they can to assist you; whether it is the importance of mail and letting you know, to faxing for you, and just plain out helping you. The housekeeping and maintence staff does a fine job, and asks if there is anything you need, and always... has a smile and a cheery hello.  The front desk staff does a great job in being there and helping everyone on a continuous basis, even when they are busy with many tasks. Sue the manager is a very kind lady, with a great disposition, and has an answer to your questions and if she doesn't she will find out and call you with the answer. The rooms are good (we have been here twice for at least three months each time and NEVER seen a bug of any kind) and everything works well and if not it is fix and or replaced right away.  There are many old things being replce with new, like all new beds which are VERY comfortable, and new speads and New HD TVs, and the Laundry is excellent.  We are moving to Denver perminately and in moving it takes time to get established and find the right home, and in the mean time while we are looking we feel very welcomed here and treated like family and when we leave will remember our stay here fondly.  We would highly recommend Extended Stay America in Westminister to any and all whether for a few days or a few months.  Thank you Sue and everyone...The RehfieldsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r138049415-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>138049415</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Affordable and clean</t>
+  </si>
+  <si>
+    <t>If you are just looking for a place to rest your head for a day or two, this is a nice place to do so.  The room was clean, the staff were friendly, and the stay was enjoyable.  Location was also quite handy.  Only twenty minutes from downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded August 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2012</t>
+  </si>
+  <si>
+    <t>If you are just looking for a place to rest your head for a day or two, this is a nice place to do so.  The room was clean, the staff were friendly, and the stay was enjoyable.  Location was also quite handy.  Only twenty minutes from downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r131086303-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>131086303</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Better than most affordable motels</t>
+  </si>
+  <si>
+    <t>This motel/hotel is clean and quiet. It had exceeded my expectation for the price I paid. Location is good because it is a little farther from the highway and much quieter than most motels. Also it is convenient for shopping, food, etc. Nice, affordable motel for N. Denver and Boulder area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>This motel/hotel is clean and quiet. It had exceeded my expectation for the price I paid. Location is good because it is a little farther from the highway and much quieter than most motels. Also it is convenient for shopping, food, etc. Nice, affordable motel for N. Denver and Boulder area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r130271396-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>130271396</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Best run Extended StayAmerica</t>
+  </si>
+  <si>
+    <t>Robert checked us in on Thursday night. He was so friendly and professional. We were astounded by the great customer service we received, it was like checking into the Ritz Carlton. He gave us great directions to the airport and then the next night helped us organize our touring itinerary of Denver. He is a a star!We were also well treated by Francesco and Ellie.The room was nicely cleaned, well lit and the property well maintained. It was one of the best Extended Stays that we have visited.Volkan AkkurtMoreShow less</t>
+  </si>
+  <si>
+    <t>Robert checked us in on Thursday night. He was so friendly and professional. We were astounded by the great customer service we received, it was like checking into the Ritz Carlton. He gave us great directions to the airport and then the next night helped us organize our touring itinerary of Denver. He is a a star!We were also well treated by Francesco and Ellie.The room was nicely cleaned, well lit and the property well maintained. It was one of the best Extended Stays that we have visited.Volkan AkkurtMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r123004314-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>123004314</t>
+  </si>
+  <si>
+    <t>01/12/2012</t>
+  </si>
+  <si>
+    <t>Great value and excellent staff</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable.  Front desk staff, TJ, was very helpful and kind.  I made a late phone call to him to find out if there were rooms available and he was beyond helpful and professional.  Very affordable and not a far drive from downtown Denver.  I saved a lot of money by staying here instead of in the downtown area.  Nothing but positive things to say about this hotel.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r17093124-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>17093124</t>
+  </si>
+  <si>
+    <t>06/20/2008</t>
+  </si>
+  <si>
+    <t>Reservations Are Worthless</t>
+  </si>
+  <si>
+    <t>The manager selective honors reservations no matter how far in advance you make them...even eight months in advance.  It's really taking a chance if you just show up as she admittedly overbooks in addition to giving reservations to guest who want to "extend" their stay.  I guess that's where the hotel chain gets their name.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r15783695-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>15783695</t>
+  </si>
+  <si>
+    <t>05/07/2008</t>
+  </si>
+  <si>
+    <t>Very affordable and convenient</t>
+  </si>
+  <si>
+    <t>I stayed here because the price was right ($55/night).  This is an extended stay hotel with a queen size bed, a chair, a desk, small dining table, full-sized refrigerator, sink, and stove.  It is also in a very convenient location (off I25 on W 120th avenue) with restaurants within walking distance (Starbucks, C&amp;B Potts, etc.).  Some cons - it is extended stay so they don't clean your room if you stay less than 7 nights.  There was no blow dryer in the room (had to ask the front desk).  Little to no toiletries (or ask the front desk).  The hallways did smell funny but the room was clean and smelled fresh/clean (if a bit worn).  No breakfast either (although you do have a kitchen that you can stock up).Overall, if you want to be in this location and don't want to pay too much, then this is a good choice.  For me, I may opt for some of the other hotels nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here because the price was right ($55/night).  This is an extended stay hotel with a queen size bed, a chair, a desk, small dining table, full-sized refrigerator, sink, and stove.  It is also in a very convenient location (off I25 on W 120th avenue) with restaurants within walking distance (Starbucks, C&amp;B Potts, etc.).  Some cons - it is extended stay so they don't clean your room if you stay less than 7 nights.  There was no blow dryer in the room (had to ask the front desk).  Little to no toiletries (or ask the front desk).  The hallways did smell funny but the room was clean and smelled fresh/clean (if a bit worn).  No breakfast either (although you do have a kitchen that you can stock up).Overall, if you want to be in this location and don't want to pay too much, then this is a good choice.  For me, I may opt for some of the other hotels nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r15518244-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>15518244</t>
+  </si>
+  <si>
+    <t>04/30/2008</t>
+  </si>
+  <si>
+    <t>Spartan, Efficient, Suitable for the business traveler</t>
+  </si>
+  <si>
+    <t>We bid on priceline for this stay - $45 per night for a 3 night stay. You do have to pay a flat rate of $5(per stay) for hi-speed internet.  The hotel is convenient to Federal Hwy (287), I-25 and Hwy 36. We had no problem finding it.   It is a good neighborhood (no crime worries that I could see) and is very close to restaurants, shopping, gas stations, and more.  We were greeted promptly by a friendly staff member. This rooms are a bit spartan, but are efficiently arranged with large bathrooms, a well appointed kitchenette, a small tv, iron and ironing board.  The room was clean but smelled stringent from some industrial cleaner. The beds are small and creaky, bring an extra pillow because the pillows are small and flat.  Overall the beds and bedding need to be upgraded, but did appear to be clean.  This hotel is quiet, most guests are truly extended stay guests on long term lease.  Though there could be some improvements I would stay here again for the right price.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>We bid on priceline for this stay - $45 per night for a 3 night stay. You do have to pay a flat rate of $5(per stay) for hi-speed internet.  The hotel is convenient to Federal Hwy (287), I-25 and Hwy 36. We had no problem finding it.   It is a good neighborhood (no crime worries that I could see) and is very close to restaurants, shopping, gas stations, and more.  We were greeted promptly by a friendly staff member. This rooms are a bit spartan, but are efficiently arranged with large bathrooms, a well appointed kitchenette, a small tv, iron and ironing board.  The room was clean but smelled stringent from some industrial cleaner. The beds are small and creaky, bring an extra pillow because the pillows are small and flat.  Overall the beds and bedding need to be upgraded, but did appear to be clean.  This hotel is quiet, most guests are truly extended stay guests on long term lease.  Though there could be some improvements I would stay here again for the right price.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1882,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1914,3834 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>134</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="X13" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>187</v>
+      </c>
+      <c r="X18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>194</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>196</v>
+      </c>
+      <c r="X19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+      <c r="J20" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>204</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" t="s">
+        <v>214</v>
+      </c>
+      <c r="K22" t="s">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s">
+        <v>216</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>222</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" t="s">
+        <v>231</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>241</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>242</v>
+      </c>
+      <c r="X26" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>246</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
+      <c r="K27" t="s">
+        <v>248</v>
+      </c>
+      <c r="L27" t="s">
+        <v>249</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>250</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+      <c r="L28" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>250</v>
+      </c>
+      <c r="O29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>250</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>279</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" t="s">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>295</v>
+      </c>
+      <c r="X35" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" t="s">
+        <v>300</v>
+      </c>
+      <c r="K36" t="s">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s">
+        <v>302</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>303</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>304</v>
+      </c>
+      <c r="J37" t="s">
+        <v>305</v>
+      </c>
+      <c r="K37" t="s">
+        <v>306</v>
+      </c>
+      <c r="L37" t="s">
+        <v>307</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>308</v>
+      </c>
+      <c r="O37" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>309</v>
+      </c>
+      <c r="X37" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>313</v>
+      </c>
+      <c r="J38" t="s">
+        <v>314</v>
+      </c>
+      <c r="K38" t="s">
+        <v>315</v>
+      </c>
+      <c r="L38" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>317</v>
+      </c>
+      <c r="O38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>319</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" t="s">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s">
+        <v>323</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>324</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>325</v>
+      </c>
+      <c r="X39" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" t="s">
+        <v>332</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>333</v>
+      </c>
+      <c r="X40" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>336</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>337</v>
+      </c>
+      <c r="J41" t="s">
+        <v>338</v>
+      </c>
+      <c r="K41" t="s">
+        <v>339</v>
+      </c>
+      <c r="L41" t="s">
+        <v>340</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>341</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>342</v>
+      </c>
+      <c r="X41" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s">
+        <v>349</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>350</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>351</v>
+      </c>
+      <c r="X42" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>360</v>
+      </c>
+      <c r="X43" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>363</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>364</v>
+      </c>
+      <c r="J44" t="s">
+        <v>365</v>
+      </c>
+      <c r="K44" t="s">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s">
+        <v>367</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>368</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>369</v>
+      </c>
+      <c r="X44" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>377</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>378</v>
+      </c>
+      <c r="X45" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>381</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46" t="s">
+        <v>383</v>
+      </c>
+      <c r="K46" t="s">
+        <v>384</v>
+      </c>
+      <c r="L46" t="s">
+        <v>385</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>386</v>
+      </c>
+      <c r="X46" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>390</v>
+      </c>
+      <c r="J47" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" t="s">
+        <v>392</v>
+      </c>
+      <c r="L47" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>359</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>394</v>
+      </c>
+      <c r="X47" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>397</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>398</v>
+      </c>
+      <c r="J48" t="s">
+        <v>399</v>
+      </c>
+      <c r="K48" t="s">
+        <v>400</v>
+      </c>
+      <c r="L48" t="s">
+        <v>401</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>402</v>
+      </c>
+      <c r="X48" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>406</v>
+      </c>
+      <c r="J49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" t="s">
+        <v>408</v>
+      </c>
+      <c r="L49" t="s">
+        <v>409</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>359</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>410</v>
+      </c>
+      <c r="X49" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>413</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>414</v>
+      </c>
+      <c r="J50" t="s">
+        <v>415</v>
+      </c>
+      <c r="K50" t="s">
+        <v>416</v>
+      </c>
+      <c r="L50" t="s">
+        <v>417</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>418</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>419</v>
+      </c>
+      <c r="X50" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>422</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>423</v>
+      </c>
+      <c r="J51" t="s">
+        <v>424</v>
+      </c>
+      <c r="K51" t="s">
+        <v>425</v>
+      </c>
+      <c r="L51" t="s">
+        <v>426</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>427</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>428</v>
+      </c>
+      <c r="X51" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>431</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>432</v>
+      </c>
+      <c r="J52" t="s">
+        <v>433</v>
+      </c>
+      <c r="K52" t="s">
+        <v>434</v>
+      </c>
+      <c r="L52" t="s">
+        <v>435</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>436</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>437</v>
+      </c>
+      <c r="X52" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>440</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>441</v>
+      </c>
+      <c r="J53" t="s">
+        <v>442</v>
+      </c>
+      <c r="K53" t="s">
+        <v>443</v>
+      </c>
+      <c r="L53" t="s">
+        <v>444</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>445</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>446</v>
+      </c>
+      <c r="X53" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>450</v>
+      </c>
+      <c r="J54" t="s">
+        <v>451</v>
+      </c>
+      <c r="K54" t="s">
+        <v>452</v>
+      </c>
+      <c r="L54" t="s">
+        <v>453</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>427</v>
+      </c>
+      <c r="O54" t="s">
+        <v>72</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>446</v>
+      </c>
+      <c r="X54" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>455</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>456</v>
+      </c>
+      <c r="J55" t="s">
+        <v>457</v>
+      </c>
+      <c r="K55" t="s">
+        <v>458</v>
+      </c>
+      <c r="L55" t="s">
+        <v>459</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>460</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>466</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>467</v>
+      </c>
+      <c r="J57" t="s">
+        <v>468</v>
+      </c>
+      <c r="K57" t="s">
+        <v>469</v>
+      </c>
+      <c r="L57" t="s">
+        <v>470</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>472</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>473</v>
+      </c>
+      <c r="J58" t="s">
+        <v>474</v>
+      </c>
+      <c r="K58" t="s">
+        <v>475</v>
+      </c>
+      <c r="L58" t="s">
+        <v>476</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>477</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_85.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_85.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="766">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/02/2018</t>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r606452786-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>33691</t>
+  </si>
+  <si>
+    <t>225474</t>
+  </si>
+  <si>
+    <t>606452786</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>They did not give the reserved room</t>
+  </si>
+  <si>
+    <t>Desk did not give the reserved room. I reserved West Side End of Wing. I received the reserved email. But the woman at the Bell desk did not give that room. Room was North side with poor view and serious noise. Also I asked many times to change the reserved room. But they did not.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Desk did not give the reserved room. I reserved West Side End of Wing. I received the reserved email. But the woman at the Bell desk did not give that room. Room was North side with poor view and serious noise. Also I asked many times to change the reserved room. But they did not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r596117960-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>596117960</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Comfortable place - a night or a week</t>
+  </si>
+  <si>
+    <t>Have stayed with this chain before and this location did not disappoint.  Wonderful staff.  Sizable rooms with kitchenette.  Bare bones breakfast, but enough coffee to get you out the door!  convenient location to several food options and quick access to interstate to Denver or back north.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2018</t>
+  </si>
+  <si>
+    <t>Have stayed with this chain before and this location did not disappoint.  Wonderful staff.  Sizable rooms with kitchenette.  Bare bones breakfast, but enough coffee to get you out the door!  convenient location to several food options and quick access to interstate to Denver or back north.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r589573692-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>589573692</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Operation management</t>
+  </si>
+  <si>
+    <t>Sherry and Sue we're so helpful with directions and info I needed. Very friendly everytime they seen me.I will definitely be recommending this hotel to family and friends because of their hospitality. Thank You!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2018</t>
+  </si>
+  <si>
+    <t>Sherry and Sue we're so helpful with directions and info I needed. Very friendly everytime they seen me.I will definitely be recommending this hotel to family and friends because of their hospitality. Thank You!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r567809408-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
-    <t>33691</t>
-  </si>
-  <si>
-    <t>225474</t>
-  </si>
-  <si>
     <t>567809408</t>
   </si>
   <si>
@@ -177,9 +261,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded March 21, 2018</t>
   </si>
   <si>
@@ -234,9 +315,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded February 15, 2018</t>
   </si>
   <si>
@@ -246,6 +324,60 @@
     <t>now that I am here onsite with them they shared that they have not felt entirely comfortable there (based on the clientele that the location has and a few things broken in their rooms); I´ve also experienced the same concerns over these few days at the place.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r557619124-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>557619124</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Staff is awesome</t>
+  </si>
+  <si>
+    <t>I stay at this hotel mainly because of the staff. Gaylon, Andrea, Tom &amp; Annie are all so very friendly and helpful. They go out of there way to make your stay a great one. I stay here often and there kindness is why I continue to stay at this hotel. Thank you all for making my stays comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>I stay at this hotel mainly because of the staff. Gaylon, Andrea, Tom &amp; Annie are all so very friendly and helpful. They go out of there way to make your stay a great one. I stay here often and there kindness is why I continue to stay at this hotel. Thank you all for making my stays comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r554636816-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>554636816</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Very nice and cozy!</t>
+  </si>
+  <si>
+    <t>I have stayed here many times and just thought to leave a review. Gaylyn and Sue have worked there forever and have always been  nice to me when i stay. Very nice quiet &amp; near restaurant's. Great rates as well MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed here many times and just thought to leave a review. Gaylyn and Sue have worked there forever and have always been  nice to me when i stay. Very nice quiet &amp; near restaurant's. Great rates as well More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r553874621-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -261,9 +393,6 @@
     <t>I stayed here for week1/2 And all I can say for me,The staff was great ,Gaylynn how she helped me in many ways,and put up with my morning dramas she had patience and understanding and hospitality was #1 and sue also was very accommodating.I was comfortable,room service was very nice.I would stay there just to get away from it all.Thank You ladies and gentlemen for making my stay pleasent.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
@@ -327,6 +456,57 @@
     <t>Room was clean. Hotel was clean. Friendly service. The staff always goes above and beyond for their guest. Close to the highway for quick access to downtown attractions. Overall I’ve stayed here multiple times and have never had a bad experience. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r545188760-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>545188760</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Poor WiFi, poor TV and drainage problems</t>
+  </si>
+  <si>
+    <t>Not paying for WiFi does mean not having the best, but even for FREE WiFi, the connection was EXTREMELY slow. Be extremely careful stepping outside of the Hotel, local traffic does NOT obey Speed Limits or Stop Signs.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Not paying for WiFi does mean not having the best, but even for FREE WiFi, the connection was EXTREMELY slow. Be extremely careful stepping outside of the Hotel, local traffic does NOT obey Speed Limits or Stop Signs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r542888690-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>542888690</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>Quality Service</t>
+  </si>
+  <si>
+    <t>I’ve been staying here for a couple of months while purchasing a home in the Denver area. I’ve enjoyed staying and the quality of service has been high from the minute you enter your greeted with a smile and a hello.Sue the manager is a sweetheart and I’ve enjoyed a natter or two about the area.  All the staff on the front desk are more than willing to help make your stay feel like a safe home from home. The room attendants are kind and friendly and do a great job also the maintenance guy is great as well. What else can I say other than you will never have to worry about a thing, your stay will be a perfect home from home and isn’t that what we all want at the end of the day! I will miss the staff when I leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>I’ve been staying here for a couple of months while purchasing a home in the Denver area. I’ve enjoyed staying and the quality of service has been high from the minute you enter your greeted with a smile and a hello.Sue the manager is a sweetheart and I’ve enjoyed a natter or two about the area.  All the staff on the front desk are more than willing to help make your stay feel like a safe home from home. The room attendants are kind and friendly and do a great job also the maintenance guy is great as well. What else can I say other than you will never have to worry about a thing, your stay will be a perfect home from home and isn’t that what we all want at the end of the day! I will miss the staff when I leave.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r540786338-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -405,6 +585,57 @@
     <t>Well-managed,good prices,excellent staff. Would recommend and I have strong knowledge. Pet friendly, clean, responsive to customers, specials and promotions of great value. Great location to Boulder and Denver.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r509487521-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>509487521</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No problems </t>
+  </si>
+  <si>
+    <t>No problems room is clean what more can I expect from extended stay America. I have stayed at several extended stay America I had to cancel the reservation because I look disgusting this room was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>No problems room is clean what more can I expect from extended stay America. I have stayed at several extended stay America I had to cancel the reservation because I look disgusting this room was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r503751338-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>503751338</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Not the typical hotel</t>
+  </si>
+  <si>
+    <t>I booked the hotel through my company benefits program for a weekend. There was no housekeeping available during the weekend. Small and hard bed, as well as hard pillows. Breakfast was grab and go of granola bars and not very good coffee. The staff was very nice, but overall, not the type of hotel I am used to. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>I booked the hotel through my company benefits program for a weekend. There was no housekeeping available during the weekend. Small and hard bed, as well as hard pillows. Breakfast was grab and go of granola bars and not very good coffee. The staff was very nice, but overall, not the type of hotel I am used to. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r499680801-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -420,9 +651,6 @@
     <t>I liked the hostess at the desk, she made things start great from the moment we came in the door. The rooms are nice and comfortable. Good extra accommodations. Overall wonderful experience. Look forward to the rest of our stay.MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 9, 2017</t>
   </si>
   <si>
@@ -474,30 +702,63 @@
     <t>Room had a weird smell...like burnt caramel. I had to keep the curtains shut my entire stay because I was on the ground floor and people liked to stand outside my room and smoke. Light covers on closet and bathroom fixtures were missing, the closet light buzzed loudly, the light switch on one of the desk lamps was broken, one of the bedside lights didn't work, the shower head leaked, the shower drained so slow I was standing in ankle-deep water by the end of each shower. The gentleman who checked me in was awkward and unprofessional, everyone else was fine. "Breakfast" was a joke. Other than that, it was quiet, the A/C worked well and the water was hot.  I didn't have high expectations when I hotwired this hotel but it fell well short of them. Be warned that you're sharing this hotel with people who seem to be down on their luck and who are living there. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r497954800-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>497954800</t>
+  </si>
+  <si>
+    <t>Un-professional buisness</t>
+  </si>
+  <si>
+    <t>This is my second issue with Extended stay within a year. I booked a reservation, drove an hour out of my way to het there only to be told that the rooms weren't cleaned and they wouldn't honor my reservation. I was also told there is nothing they could do and to find another hotel. Ok, I will and the next time, and time after that.......etcMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>This is my second issue with Extended stay within a year. I booked a reservation, drove an hour out of my way to het there only to be told that the rooms weren't cleaned and they wouldn't honor my reservation. I was also told there is nothing they could do and to find another hotel. Ok, I will and the next time, and time after that.......etcMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r496935923-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>496935923</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Gave this hotel a try while I was in the Denver area to visit some buddies. It was clean, had a comfortable bed, the staff was extremely friendly! And it was nice to have a kitchen to do some cooking on the nights I didn't want to go out. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Gave this hotel a try while I was in the Denver area to visit some buddies. It was clean, had a comfortable bed, the staff was extremely friendly! And it was nice to have a kitchen to do some cooking on the nights I didn't want to go out. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r496933669-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
     <t>496933669</t>
   </si>
   <si>
-    <t>06/28/2017</t>
-  </si>
-  <si>
     <t>Feels like home</t>
   </si>
   <si>
     <t>This is my home away from home. Annie and Sue always take great care of me when I stay here. Room is always clean, comfortable bed and if I need anything else the front desk always has what I need. Also, great location to many different restaurants and quick access to highway. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded June 29, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 29, 2017</t>
-  </si>
-  <si>
     <t>This is my home away from home. Annie and Sue always take great care of me when I stay here. Room is always clean, comfortable bed and if I need anything else the front desk always has what I need. Also, great location to many different restaurants and quick access to highway. More</t>
   </si>
   <si>
@@ -538,6 +799,48 @@
   </si>
   <si>
     <t>Seems old and dingy. The first room they put me in had dirty sheets and bed cover, as well as dirty counters and fridge. There was hair on the bedding!  Called the front desk, and she nonchalantly offered another room. I was exhausted, but had to gather all my things, go back downstairs and get another room. The bedding was clean, but the fridge- not really!  Otherwise, the room was ok, not bad for the money. No coffee maker. The "grab-and-go breakfast" consists of a muffin, instant oatmeal package, and coffee. Evening and morning front desk staff were very nice, but the night person was very young, and did not seem impressed with my complaint. She was helpful and got me another room, but did not care much. Doubt I would stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r434288009-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>434288009</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>I needed to make a reservation for my son... The front desk was top notch.. very helpful and kind! Thank you!!!!! My son said the suite was very clean and all he needed for cooking!! Keep up the great work. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded November 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2016</t>
+  </si>
+  <si>
+    <t>I needed to make a reservation for my son... The front desk was top notch.. very helpful and kind! Thank you!!!!! My son said the suite was very clean and all he needed for cooking!! Keep up the great work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r425353346-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>425353346</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>empty kitchen</t>
+  </si>
+  <si>
+    <t>this was really just a empty kitchen and a bed. No dishes to use, not even a coffee maker. You must bring every thing. Good location.  Not much of a grab and go morning eats either, allowed one muffin or breakfast bar.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r419321607-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
@@ -617,6 +920,48 @@
     <t>Super friendly staff, clean rooms, great service, Cheap! What else is there to say! Would definitely stay here again. Pet friendly. They are awesome here. They have small food parties for their customers. Definitely go above and beyond for their customers!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r381003810-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>381003810</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Best stay ever!</t>
+  </si>
+  <si>
+    <t>I came on a business trip and I must say that extended stay America in Westminster Colorado is a home away from home. The staff that is not only friendly but they went out of their way to make me feel at home. I have a crew of four others and they are very happy to be staying here. Being away from home can be hard but the folks at Extended StayAmerica in Westminster Colorado make it a little bit easier.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>I came on a business trip and I must say that extended stay America in Westminster Colorado is a home away from home. The staff that is not only friendly but they went out of their way to make me feel at home. I have a crew of four others and they are very happy to be staying here. Being away from home can be hard but the folks at Extended StayAmerica in Westminster Colorado make it a little bit easier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r380508265-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>380508265</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Better than what you pay for</t>
+  </si>
+  <si>
+    <t>I wound up being stuck moving to Denver with nowhere to live.  This Extended Stay was the cheapest extended type hotel I found in the area.  They have a little kitchenette with fridge, microwave, dishes, etc.  Place was clean enough, saw one bug in my two weeks there.  The exercise room has treadmill and elliptical, but has a strange smell.  Washer and dryer are each $2.00.  Staff was always polite and helpful.  Grab and go breakfast consists of tea, coffee, apples, and granola bars.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r378457526-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -632,9 +977,6 @@
     <t>If you want a clean room and premises, the most helpful staff anywhere, and a terrific location, you have got to stay here. I'm a 20+ year retired military officer. I have stayed in hotels all over the world; I have high standards, especially when I will be staying there for a couple of weeks. The rooms, bathrooms, laundry room, corridors, even the parking lot - immaculate. The front desk folks, maintenance people, and housekeeping staff were wonderful and did everything in their power to help make our stay problem-free. The location is amazing. Starbucks, Hooters, Anthony's Pizza, Subway, Qdoba - less than a block away. Just about every store and restaurant you can think of within a ten-minute drive. Very reasonable rates, no parking fees.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>If you want a clean room and premises, the most helpful staff anywhere, and a terrific location, you have got to stay here. I'm a 20+ year retired military officer. I have stayed in hotels all over the world; I have high standards, especially when I will be staying there for a couple of weeks. The rooms, bathrooms, laundry room, corridors, even the parking lot - immaculate. The front desk folks, maintenance people, and housekeeping staff were wonderful and did everything in their power to help make our stay problem-free. The location is amazing. Starbucks, Hooters, Anthony's Pizza, Subway, Qdoba - less than a block away. Just about every store and restaurant you can think of within a ten-minute drive. Very reasonable rates, no parking fees.More</t>
   </si>
   <si>
@@ -671,6 +1013,51 @@
     <t>The room is clean and usable with a kitchenette, no garbage disposal, a necessity if you have only one working hand to clean food scraps off a plate and rinse it.  There are also no drain covers available.  The doors are not wheelchair friendly without an automatic door opener.  Unless you can stand, you'll need a bath seat to shower.  No bathtub.  They advertise Disability equiped, a compliance to standards that are not wheelchair oriented.Go elsewhere if you are a wheelchair person.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r372440104-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>372440104</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Very extended stay</t>
+  </si>
+  <si>
+    <t>We have been staying here for over 7 months and we are extremely satisfied with the staff and accommodations. The rooms are clean and comfortable and I love having a kitchen. I would highly recommend this hotel, especially if you need somewhere to stay for an extended period of time.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r370757474-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>370757474</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>my stay at Westminster Co.</t>
+  </si>
+  <si>
+    <t>I have been here since the first of Jan. After a week on the 2nd floor Mngt moved me to a third floor room with a beautiful view of the Rockies. I couldn't have asked for a better room.Everyone from housekeeping to Mngt has made me feel like family and we have had alot of laughs throughout my stay and hope to have more. I feel like i have too many sisters now!!!! I always look forward to daily interactions with my new family members.;)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2016</t>
+  </si>
+  <si>
+    <t>I have been here since the first of Jan. After a week on the 2nd floor Mngt moved me to a third floor room with a beautiful view of the Rockies. I couldn't have asked for a better room.Everyone from housekeeping to Mngt has made me feel like family and we have had alot of laughs throughout my stay and hope to have more. I feel like i have too many sisters now!!!! I always look forward to daily interactions with my new family members.;)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r365822268-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -722,12 +1109,44 @@
     <t>We chose to stay here as we were building a new house which was delayed forcing us into a hotel.  With the National Western Stock Show approaching our options were limited and we ended up at the Extended Stay America.  The property is showing its age and although it is supposedly a non-smoking property the entire place smelled of smoke and on more than one occasion absolutely reeked of pot.  And then there was the staff.  Most were fairly polite with the exception of one young lady.  As we came back from dinner one evening it appeared that someone was taking down license plate numbers in the parking lot.  I approached the desk and ask if there was a policy about vehicles being parked and not moved.  She said no and ask what my concern was.  I said one of my vehicles had been parked for over a week and I didn't want to come down and find that it had been towed.  Her reply was that if it got towed it wasn't their problem.  I said, "excuse me", if it gets towed after I had asked it would be their problem.  She got defensive and started yelling at me.  An no time did I raise me voice or use any profanity.  I suggested this wasn't the way to talk to a guest who had ask a perfectly legitimate question at which time she started yelling at me that I...We chose to stay here as we were building a new house which was delayed forcing us into a hotel.  With the National Western Stock Show approaching our options were limited and we ended up at the Extended Stay America.  The property is showing its age and although it is supposedly a non-smoking property the entire place smelled of smoke and on more than one occasion absolutely reeked of pot.  And then there was the staff.  Most were fairly polite with the exception of one young lady.  As we came back from dinner one evening it appeared that someone was taking down license plate numbers in the parking lot.  I approached the desk and ask if there was a policy about vehicles being parked and not moved.  She said no and ask what my concern was.  I said one of my vehicles had been parked for over a week and I didn't want to come down and find that it had been towed.  Her reply was that if it got towed it wasn't their problem.  I said, "excuse me", if it gets towed after I had asked it would be their problem.  She got defensive and started yelling at me.  An no time did I raise me voice or use any profanity.  I suggested this wasn't the way to talk to a guest who had ask a perfectly legitimate question at which time she started yelling at me that I wasn't her father and threatened to call the police.  I've stayed in hotels for over a 1000 nights from Cairo to Sydney and have never been treated so disrespectfully by desk staff.  As I started to walk away I commented about the pervasive stench of pot on the third floor and her reply was "so what".  If it had not been for the fact the Stock Show was in progress and there were no other rooms anywhere we would have moved.  I would just as soon stay in a tent as to put up with such disgusting behavior in such a disgusting place!  One more thing....their free internet was a joke.  I've gotten better throughput with dial-upMoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>We chose to stay here as we were building a new house which was delayed forcing us into a hotel.  With the National Western Stock Show approaching our options were limited and we ended up at the Extended Stay America.  The property is showing its age and although it is supposedly a non-smoking property the entire place smelled of smoke and on more than one occasion absolutely reeked of pot.  And then there was the staff.  Most were fairly polite with the exception of one young lady.  As we came back from dinner one evening it appeared that someone was taking down license plate numbers in the parking lot.  I approached the desk and ask if there was a policy about vehicles being parked and not moved.  She said no and ask what my concern was.  I said one of my vehicles had been parked for over a week and I didn't want to come down and find that it had been towed.  Her reply was that if it got towed it wasn't their problem.  I said, "excuse me", if it gets towed after I had asked it would be their problem.  She got defensive and started yelling at me.  An no time did I raise me voice or use any profanity.  I suggested this wasn't the way to talk to a guest who had ask a perfectly legitimate question at which time she started yelling at me that I...We chose to stay here as we were building a new house which was delayed forcing us into a hotel.  With the National Western Stock Show approaching our options were limited and we ended up at the Extended Stay America.  The property is showing its age and although it is supposedly a non-smoking property the entire place smelled of smoke and on more than one occasion absolutely reeked of pot.  And then there was the staff.  Most were fairly polite with the exception of one young lady.  As we came back from dinner one evening it appeared that someone was taking down license plate numbers in the parking lot.  I approached the desk and ask if there was a policy about vehicles being parked and not moved.  She said no and ask what my concern was.  I said one of my vehicles had been parked for over a week and I didn't want to come down and find that it had been towed.  Her reply was that if it got towed it wasn't their problem.  I said, "excuse me", if it gets towed after I had asked it would be their problem.  She got defensive and started yelling at me.  An no time did I raise me voice or use any profanity.  I suggested this wasn't the way to talk to a guest who had ask a perfectly legitimate question at which time she started yelling at me that I wasn't her father and threatened to call the police.  I've stayed in hotels for over a 1000 nights from Cairo to Sydney and have never been treated so disrespectfully by desk staff.  As I started to walk away I commented about the pervasive stench of pot on the third floor and her reply was "so what".  If it had not been for the fact the Stock Show was in progress and there were no other rooms anywhere we would have moved.  I would just as soon stay in a tent as to put up with such disgusting behavior in such a disgusting place!  One more thing....their free internet was a joke.  I've gotten better throughput with dial-upMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r339985043-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>339985043</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Won't be going back</t>
+  </si>
+  <si>
+    <t>A few weeks before my stay, the hotel manager called and talked to me about my stay since I was traveling from another state and wanted to make sure the room was guaranteed for early arrival.  She was very kind and helpful.  
+On the way to Colorado, I called to re-confirm that early check in would be okay; the woman told me it would be fine.  When I arrived, a housekeeper was working and said I couldn't check in because it was too early...it was 6:45am.  I guess the actual front desk staff wouldn't arrive until 7am.  I explained that I had spoken with someone earlier who said early check in would be fine; I told her I had driven 12 hours, all night long, and I really needed to get some rest.  She said that she didn't know what to do and didn't want to break the rules.  Just then, a real front desk employee walked in.  The housekeeper asked if they were allowing early check in and the woman said that they were.  Poor communication on their part.  The whole check-in process was ridiculously long.  They asked for a major credit card or $100 cash for a deposit.  I explained that I had already paid for the hotel; they said that they still needed a deposit.  I don't own any credit cards, so I gave them my Visa debit card which was be used as credit, as well....A few weeks before my stay, the hotel manager called and talked to me about my stay since I was traveling from another state and wanted to make sure the room was guaranteed for early arrival.  She was very kind and helpful.  On the way to Colorado, I called to re-confirm that early check in would be okay; the woman told me it would be fine.  When I arrived, a housekeeper was working and said I couldn't check in because it was too early...it was 6:45am.  I guess the actual front desk staff wouldn't arrive until 7am.  I explained that I had spoken with someone earlier who said early check in would be fine; I told her I had driven 12 hours, all night long, and I really needed to get some rest.  She said that she didn't know what to do and didn't want to break the rules.  Just then, a real front desk employee walked in.  The housekeeper asked if they were allowing early check in and the woman said that they were.  Poor communication on their part.  The whole check-in process was ridiculously long.  They asked for a major credit card or $100 cash for a deposit.  I explained that I had already paid for the hotel; they said that they still needed a deposit.  I don't own any credit cards, so I gave them my Visa debit card which was be used as credit, as well.  I was told that they needed an actual credit card or $100 cash.  I brought a little over $100 cash total for my trip, so I didn't have much left after they took it for my deposit.  Once I finally got to my room, I looked in the tub and noticed hair on the floor.  I was disgusted, yet too exhausted to ask for another room.  I ended up standing on a towel to shower all 3 nights.  The room was pretty nice and I really appreciated the full-size refrigerator/freezer.  However, it was quite loud.  I constantly heard doors slamming, people walking around above my room, and the person's TV in the next room.  I actually had to take medication to help me sleep.  I realize hotels aren't going to be quiet all the time, but it was by far the loudest one I have ever been to.  I chose to strike out very early in the morning so I could get back home at a decent hour.  I went to check out, but there was no one at the front desk.  I went back to my room and called downstairs.  I told the woman that I was going to check out and just needed to get my deposit.  She said that she had no access to the safe where the money was.  I asked her what I was supposed to do since I lived 800 miles away.  Her response was something along the lines of, "I don't know."  Not very helpful.  I asked if there was someone she could call to come in and get the money, and she said no, but that someone would arrive at 7am who would have access to the safe.  It was 4:30am.  I explained that I couldn't wait 2 and a half hours to leave and asked what my options were.  She said that maybe they could mail it to me.  I was borderline furious.  On top of being told I could check in early, then being told that I couldn't check, then being told again that I actually COULD check in early, the hair on the tub floor, the noise, the fact that it was 4:30am, the 800 mile drive ahead of me and leaving Colorado without my $100 cash, it was a horrible experience.A man working at the front desk called me on my way home.  He was very, very kind and understanding.  He explained that they would get me a check mailed out ASAP.  I made him known of my concerns and he responded in a professional manner.  He was apologetic; I really appreciated him being so helpful.  I received my deposit in the mail a week later.MoreShow less</t>
+  </si>
+  <si>
+    <t>A few weeks before my stay, the hotel manager called and talked to me about my stay since I was traveling from another state and wanted to make sure the room was guaranteed for early arrival.  She was very kind and helpful.  
+On the way to Colorado, I called to re-confirm that early check in would be okay; the woman told me it would be fine.  When I arrived, a housekeeper was working and said I couldn't check in because it was too early...it was 6:45am.  I guess the actual front desk staff wouldn't arrive until 7am.  I explained that I had spoken with someone earlier who said early check in would be fine; I told her I had driven 12 hours, all night long, and I really needed to get some rest.  She said that she didn't know what to do and didn't want to break the rules.  Just then, a real front desk employee walked in.  The housekeeper asked if they were allowing early check in and the woman said that they were.  Poor communication on their part.  The whole check-in process was ridiculously long.  They asked for a major credit card or $100 cash for a deposit.  I explained that I had already paid for the hotel; they said that they still needed a deposit.  I don't own any credit cards, so I gave them my Visa debit card which was be used as credit, as well....A few weeks before my stay, the hotel manager called and talked to me about my stay since I was traveling from another state and wanted to make sure the room was guaranteed for early arrival.  She was very kind and helpful.  On the way to Colorado, I called to re-confirm that early check in would be okay; the woman told me it would be fine.  When I arrived, a housekeeper was working and said I couldn't check in because it was too early...it was 6:45am.  I guess the actual front desk staff wouldn't arrive until 7am.  I explained that I had spoken with someone earlier who said early check in would be fine; I told her I had driven 12 hours, all night long, and I really needed to get some rest.  She said that she didn't know what to do and didn't want to break the rules.  Just then, a real front desk employee walked in.  The housekeeper asked if they were allowing early check in and the woman said that they were.  Poor communication on their part.  The whole check-in process was ridiculously long.  They asked for a major credit card or $100 cash for a deposit.  I explained that I had already paid for the hotel; they said that they still needed a deposit.  I don't own any credit cards, so I gave them my Visa debit card which was be used as credit, as well.  I was told that they needed an actual credit card or $100 cash.  I brought a little over $100 cash total for my trip, so I didn't have much left after they took it for my deposit.  Once I finally got to my room, I looked in the tub and noticed hair on the floor.  I was disgusted, yet too exhausted to ask for another room.  I ended up standing on a towel to shower all 3 nights.  The room was pretty nice and I really appreciated the full-size refrigerator/freezer.  However, it was quite loud.  I constantly heard doors slamming, people walking around above my room, and the person's TV in the next room.  I actually had to take medication to help me sleep.  I realize hotels aren't going to be quiet all the time, but it was by far the loudest one I have ever been to.  I chose to strike out very early in the morning so I could get back home at a decent hour.  I went to check out, but there was no one at the front desk.  I went back to my room and called downstairs.  I told the woman that I was going to check out and just needed to get my deposit.  She said that she had no access to the safe where the money was.  I asked her what I was supposed to do since I lived 800 miles away.  Her response was something along the lines of, "I don't know."  Not very helpful.  I asked if there was someone she could call to come in and get the money, and she said no, but that someone would arrive at 7am who would have access to the safe.  It was 4:30am.  I explained that I couldn't wait 2 and a half hours to leave and asked what my options were.  She said that maybe they could mail it to me.  I was borderline furious.  On top of being told I could check in early, then being told that I couldn't check, then being told again that I actually COULD check in early, the hair on the tub floor, the noise, the fact that it was 4:30am, the 800 mile drive ahead of me and leaving Colorado without my $100 cash, it was a horrible experience.A man working at the front desk called me on my way home.  He was very, very kind and understanding.  He explained that they would get me a check mailed out ASAP.  I made him known of my concerns and he responded in a professional manner.  He was apologetic; I really appreciated him being so helpful.  I received my deposit in the mail a week later.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r338455383-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>338455383</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>BEST EXTENDED STAY IN THE AREA!!!</t>
+  </si>
+  <si>
+    <t>Conviently located close to I25, several restruants in the area to choose from, safe, clean location. Best bang for your buck. Whenever I come into town I come to this Extended Stay every time! The staff here is GREAT! My second home away from home. I never have no complaints about this place. Rooms are newly updated, clean, &amp; comfortable. Everything you need... Comfy bed, flat screen, fully loaded kitchen ext. I recommended this Extended Stay to anyone!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r332264402-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -788,7 +1207,56 @@
     <t>I have stayed in a lot of hotels for extended periods and this one is very nice. I found the room to be very clean as are the grounds. It is nice having the convenience of the kitchen. The kitchen supplies that are provided are sufficient for my cooking needs and it is nice to have a full size fridge. The bed is also very comfortable and feels relatively new. I would definitely recommend this hotel.</t>
   </si>
   <si>
-    <t>September 2015</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r307110873-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>307110873</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>I read some many reviews that said some bad things about the hotel and overall my says was enjoyable. My bed was comfy, water in the shower always hot, no matter the time of day. The biggest drawbacks was the lack of amenties available for the in-room kitchen, the breakfast and the wall. The walls in this hotel are thin, I could hear my neighbor snoring. The breakfast consisted of muffins, granola bars, coffee and packet oatmeal-needs some work. The amenities for the kitchen were very limited so I had to go out and purchase some. Overall I would stay again, just maybe on a higher floor</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r304219702-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>304219702</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Good value, could be excellent</t>
+  </si>
+  <si>
+    <t>Summary:
+The hotel is clean and comfortable, with kitchenettes and full refrigerators to allow a family several conveniences not available at a regular hotel.  With attention to a few details, this could be an excellent experience for a reasonable price.
+Pros:
+- The rooms are basically clean and orderly.  The property seems relatively new - if it is not new, it is very well maintained.
+- The room heat/AC fan has a continuous mode that allows for better sleep compared with the units that cycle on and off.
+These pros make the hotel an option for future stays.
+Cons:
+- National reservations promised a rate that could not be honored at the front desk.  This is just frustrating and is completely unnecessary.  They say I can sign up for the rewards program and save up to 15% instantly but that applies to my NEXT stay, not THIS one.  To me, my NEXT stay is not INSTANTLY.  Get it right guys and quote me a price for THIS stay.
+- This is a pet friendly hotel, as so many are nowadays.  I guess they lose too much business if the dog can't come along.  Fine.  But my neighbors chose to let their dogs bark starting at 6am and continue well into daylight.  The walls are paper thin so everyone hears everything.  It's hard to control guests but for goodness' sake folks should heed the 10pm-8am quite hours noted obviously in the...Summary:The hotel is clean and comfortable, with kitchenettes and full refrigerators to allow a family several conveniences not available at a regular hotel.  With attention to a few details, this could be an excellent experience for a reasonable price.Pros:- The rooms are basically clean and orderly.  The property seems relatively new - if it is not new, it is very well maintained.- The room heat/AC fan has a continuous mode that allows for better sleep compared with the units that cycle on and off.These pros make the hotel an option for future stays.Cons:- National reservations promised a rate that could not be honored at the front desk.  This is just frustrating and is completely unnecessary.  They say I can sign up for the rewards program and save up to 15% instantly but that applies to my NEXT stay, not THIS one.  To me, my NEXT stay is not INSTANTLY.  Get it right guys and quote me a price for THIS stay.- This is a pet friendly hotel, as so many are nowadays.  I guess they lose too much business if the dog can't come along.  Fine.  But my neighbors chose to let their dogs bark starting at 6am and continue well into daylight.  The walls are paper thin so everyone hears everything.  It's hard to control guests but for goodness' sake folks should heed the 10pm-8am quite hours noted obviously in the rooms.If the hotel could polish up these details, I'd give them five stars easily.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Summary:
+The hotel is clean and comfortable, with kitchenettes and full refrigerators to allow a family several conveniences not available at a regular hotel.  With attention to a few details, this could be an excellent experience for a reasonable price.
+Pros:
+- The rooms are basically clean and orderly.  The property seems relatively new - if it is not new, it is very well maintained.
+- The room heat/AC fan has a continuous mode that allows for better sleep compared with the units that cycle on and off.
+These pros make the hotel an option for future stays.
+Cons:
+- National reservations promised a rate that could not be honored at the front desk.  This is just frustrating and is completely unnecessary.  They say I can sign up for the rewards program and save up to 15% instantly but that applies to my NEXT stay, not THIS one.  To me, my NEXT stay is not INSTANTLY.  Get it right guys and quote me a price for THIS stay.
+- This is a pet friendly hotel, as so many are nowadays.  I guess they lose too much business if the dog can't come along.  Fine.  But my neighbors chose to let their dogs bark starting at 6am and continue well into daylight.  The walls are paper thin so everyone hears everything.  It's hard to control guests but for goodness' sake folks should heed the 10pm-8am quite hours noted obviously in the...Summary:The hotel is clean and comfortable, with kitchenettes and full refrigerators to allow a family several conveniences not available at a regular hotel.  With attention to a few details, this could be an excellent experience for a reasonable price.Pros:- The rooms are basically clean and orderly.  The property seems relatively new - if it is not new, it is very well maintained.- The room heat/AC fan has a continuous mode that allows for better sleep compared with the units that cycle on and off.These pros make the hotel an option for future stays.Cons:- National reservations promised a rate that could not be honored at the front desk.  This is just frustrating and is completely unnecessary.  They say I can sign up for the rewards program and save up to 15% instantly but that applies to my NEXT stay, not THIS one.  To me, my NEXT stay is not INSTANTLY.  Get it right guys and quote me a price for THIS stay.- This is a pet friendly hotel, as so many are nowadays.  I guess they lose too much business if the dog can't come along.  Fine.  But my neighbors chose to let their dogs bark starting at 6am and continue well into daylight.  The walls are paper thin so everyone hears everything.  It's hard to control guests but for goodness' sake folks should heed the 10pm-8am quite hours noted obviously in the rooms.If the hotel could polish up these details, I'd give them five stars easily.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r293861349-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
@@ -836,6 +1304,61 @@
     <t>I checked in around 1am, the process was quick. Room was average, clean, no smell, and quiet. The staff was helpful and pleasant. Only stayed one night but will be staying again next month. Good deal for the price.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r284861522-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>284861522</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Disgusting facility and disgusting treatment. You'd be better off camping.</t>
+  </si>
+  <si>
+    <t>I'll start from the bottom up:
+Lobby: Stinks like smoke and filth. Empty beer bottles in the front garden, homeless people in the parking lot, a dirty sock sitting in the elevator for 2 days... Need I continue?
+Breakfast: They actually give you a calorie allotment by stating that guests are only allowed a single breakfast item. So you get to choose between a tiny bag of oatmeal, a granola bar, a processed muffin or a granola bar. Sounds like an episode of Survivor but it wasn't very amusing. Coffee ran out quickly and no replacement urn was filled.
+Gym: Consists of a treadmill and incline stepper in a tiny room. No pool.
+Staff:The receptionists were rude, condescending and lost our Expedia reservations twice so we were locked out of our rooms twice. No apologies offered whatsoever. I noted that we were unhappy with the service received and the receptionists didn't bother to reply. I guess they really don't give a hoot about how their guests feel and this is a good reflection of everything else that I'll describe.
+Room: 
+-Filthy and stank like heavy weed users lived there for a long time. 
+-Counter had a piece of it peeling off. 
+-The cooking facilities are useless unless you are boiling water since the microwave fan barely works and the smoke detectors were set off merely by heating up oil. There went our cooking plans which was the entire reason we...I'll start from the bottom up:Lobby: Stinks like smoke and filth. Empty beer bottles in the front garden, homeless people in the parking lot, a dirty sock sitting in the elevator for 2 days... Need I continue?Breakfast: They actually give you a calorie allotment by stating that guests are only allowed a single breakfast item. So you get to choose between a tiny bag of oatmeal, a granola bar, a processed muffin or a granola bar. Sounds like an episode of Survivor but it wasn't very amusing. Coffee ran out quickly and no replacement urn was filled.Gym: Consists of a treadmill and incline stepper in a tiny room. No pool.Staff:The receptionists were rude, condescending and lost our Expedia reservations twice so we were locked out of our rooms twice. No apologies offered whatsoever. I noted that we were unhappy with the service received and the receptionists didn't bother to reply. I guess they really don't give a hoot about how their guests feel and this is a good reflection of everything else that I'll describe.Room: -Filthy and stank like heavy weed users lived there for a long time. -Counter had a piece of it peeling off. -The cooking facilities are useless unless you are boiling water since the microwave fan barely works and the smoke detectors were set off merely by heating up oil. There went our cooking plans which was the entire reason we chose that hotel. -The bed was uncomfortable and 2 paper thin pillows were provided.- There is a huge gap under the door that you can fit your foot under. This means that you hear and smell everything in the hallway and people standing there can hear everything in the room. So much for privacy. Heavy cigarette/ weed smoke would waft into our room daily. If there are mice or rodents, you can bet that they will get in even if they are stacked on top of each other.-A/C works on some ridiculous thermostat which seems to sense that you are about to open the freezer to cool the room before it turns on for 2 minutes and then turns off. In 90+ degree weather this was an utter nightmare. The unit is also noisy so you can forget about getting a good night's sleep with it on. Every time it turns on it sounds like a truck.-Trash collection; there is none. A basic service provided by the seediest motels, this hotel doesn't collect trash.- Towel replacement and room cleanup; see the above.- Elevator noise is a nightmare. Every time the elevator reaches the floor a loud bell rings. Again, forget about sleeping when people are going up and down all night. Our sleep cycle sounded like Morse code: sleep. DING. sleep. DING DING. sleep. DING.To be fair, I have stayed at dozens if not hundreds of hotels and motels. Some were nice, some where as expected and some were disgusting. The disgusting ones tended to cost about half of this one. I honestly don't know what justifies their prices as you get literally nothing in return. In addition, I would like to add something positive just to be fair and that is that the view is very nice. However we didn't book the place because of the view; we booked it because of the amenities and service which were not received. So we paid a lot for nothing.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'll start from the bottom up:
+Lobby: Stinks like smoke and filth. Empty beer bottles in the front garden, homeless people in the parking lot, a dirty sock sitting in the elevator for 2 days... Need I continue?
+Breakfast: They actually give you a calorie allotment by stating that guests are only allowed a single breakfast item. So you get to choose between a tiny bag of oatmeal, a granola bar, a processed muffin or a granola bar. Sounds like an episode of Survivor but it wasn't very amusing. Coffee ran out quickly and no replacement urn was filled.
+Gym: Consists of a treadmill and incline stepper in a tiny room. No pool.
+Staff:The receptionists were rude, condescending and lost our Expedia reservations twice so we were locked out of our rooms twice. No apologies offered whatsoever. I noted that we were unhappy with the service received and the receptionists didn't bother to reply. I guess they really don't give a hoot about how their guests feel and this is a good reflection of everything else that I'll describe.
+Room: 
+-Filthy and stank like heavy weed users lived there for a long time. 
+-Counter had a piece of it peeling off. 
+-The cooking facilities are useless unless you are boiling water since the microwave fan barely works and the smoke detectors were set off merely by heating up oil. There went our cooking plans which was the entire reason we...I'll start from the bottom up:Lobby: Stinks like smoke and filth. Empty beer bottles in the front garden, homeless people in the parking lot, a dirty sock sitting in the elevator for 2 days... Need I continue?Breakfast: They actually give you a calorie allotment by stating that guests are only allowed a single breakfast item. So you get to choose between a tiny bag of oatmeal, a granola bar, a processed muffin or a granola bar. Sounds like an episode of Survivor but it wasn't very amusing. Coffee ran out quickly and no replacement urn was filled.Gym: Consists of a treadmill and incline stepper in a tiny room. No pool.Staff:The receptionists were rude, condescending and lost our Expedia reservations twice so we were locked out of our rooms twice. No apologies offered whatsoever. I noted that we were unhappy with the service received and the receptionists didn't bother to reply. I guess they really don't give a hoot about how their guests feel and this is a good reflection of everything else that I'll describe.Room: -Filthy and stank like heavy weed users lived there for a long time. -Counter had a piece of it peeling off. -The cooking facilities are useless unless you are boiling water since the microwave fan barely works and the smoke detectors were set off merely by heating up oil. There went our cooking plans which was the entire reason we chose that hotel. -The bed was uncomfortable and 2 paper thin pillows were provided.- There is a huge gap under the door that you can fit your foot under. This means that you hear and smell everything in the hallway and people standing there can hear everything in the room. So much for privacy. Heavy cigarette/ weed smoke would waft into our room daily. If there are mice or rodents, you can bet that they will get in even if they are stacked on top of each other.-A/C works on some ridiculous thermostat which seems to sense that you are about to open the freezer to cool the room before it turns on for 2 minutes and then turns off. In 90+ degree weather this was an utter nightmare. The unit is also noisy so you can forget about getting a good night's sleep with it on. Every time it turns on it sounds like a truck.-Trash collection; there is none. A basic service provided by the seediest motels, this hotel doesn't collect trash.- Towel replacement and room cleanup; see the above.- Elevator noise is a nightmare. Every time the elevator reaches the floor a loud bell rings. Again, forget about sleeping when people are going up and down all night. Our sleep cycle sounded like Morse code: sleep. DING. sleep. DING DING. sleep. DING.To be fair, I have stayed at dozens if not hundreds of hotels and motels. Some were nice, some where as expected and some were disgusting. The disgusting ones tended to cost about half of this one. I honestly don't know what justifies their prices as you get literally nothing in return. In addition, I would like to add something positive just to be fair and that is that the view is very nice. However we didn't book the place because of the view; we booked it because of the amenities and service which were not received. So we paid a lot for nothing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r269504565-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>269504565</t>
+  </si>
+  <si>
+    <t>05/02/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE!</t>
+  </si>
+  <si>
+    <t>I can't believe any chain would allow a hotel to get in this kind of condition!   Waited 10 minutes for someone to show up to the front desk.  Had to interrupt her from talking with a coworker in the break room.  Was not dressed appropriately.  No name tag or shirt to identify herself as staff.  Hotel lobby smelled.  Room had smoke detector hanging by its wires.  Smelled.  Was not clean nor did it feel like "home" or "home away from home".  Did not feel the location was safe.  When we went back to desk to say we didn't want to stay their, initially she refused to refund the stay until I asked for the district manager's contact information. HORRIBLE EXPERIENCE!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I can't believe any chain would allow a hotel to get in this kind of condition!   Waited 10 minutes for someone to show up to the front desk.  Had to interrupt her from talking with a coworker in the break room.  Was not dressed appropriately.  No name tag or shirt to identify herself as staff.  Hotel lobby smelled.  Room had smoke detector hanging by its wires.  Smelled.  Was not clean nor did it feel like "home" or "home away from home".  Did not feel the location was safe.  When we went back to desk to say we didn't want to stay their, initially she refused to refund the stay until I asked for the district manager's contact information. HORRIBLE EXPERIENCE!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r268695366-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -885,6 +1408,54 @@
   </si>
   <si>
     <t>Manager never took care of any problems we had here . Two washer worked and they never fixed the other two and been here for three months. Ran out of toilet paper twice this week and out again . Patiently the manager don't know how to do her JOB. And only clean the rooms once a week . Been having Construction for the past week and the people done blocked half the parking lot up and ni where to park.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r240477350-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>240477350</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel w/ No Breakfast if you wake up after 8:00 a.m. tuesday(at least when I stayed there)</t>
+  </si>
+  <si>
+    <t>This is a very descent Extended Stay Hotel, I have stayed in a few ESH and this one is the newest and cleanest that I have stayed at. However the breakfast leaves something to be desired, that being the breakfast. I didn't get any. I went down to the lobby for my free breakfast, but there wasn't any. It was only 8:30 a.m, it's not like I slept in to the last minute. I sat there until the desk clerk showed up, hoping that there would be more food on the way. She asked me if I needed anything, I said "yes I am waiting for you to bring some food out for breakfast "she said "it's all gone for today". On a good note the room was very nice and has kitchen. I just didn't have any food to cook. Overall a good clean hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>This is a very descent Extended Stay Hotel, I have stayed in a few ESH and this one is the newest and cleanest that I have stayed at. However the breakfast leaves something to be desired, that being the breakfast. I didn't get any. I went down to the lobby for my free breakfast, but there wasn't any. It was only 8:30 a.m, it's not like I slept in to the last minute. I sat there until the desk clerk showed up, hoping that there would be more food on the way. She asked me if I needed anything, I said "yes I am waiting for you to bring some food out for breakfast "she said "it's all gone for today". On a good note the room was very nice and has kitchen. I just didn't have any food to cook. Overall a good clean hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r215960189-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>215960189</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Smoked out</t>
+  </si>
+  <si>
+    <t>My son &amp; I stayed at this hotel the night before a football camp.  When we got to the room, the door was propped open, lights on, &amp; windows open.  We were met with a horrible smoke smell &amp; the rain was coming thru the window making it smell like wet cigarettes.  Burn spots were all over the floor.  Clerk came up and sprayed the room, but that did not help.  Couldn't change rooms since they were supposedly full. Terrible night of rest.  Put our luggage in the bathroom to try to keep our clothes from stinking.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>My son &amp; I stayed at this hotel the night before a football camp.  When we got to the room, the door was propped open, lights on, &amp; windows open.  We were met with a horrible smoke smell &amp; the rain was coming thru the window making it smell like wet cigarettes.  Burn spots were all over the floor.  Clerk came up and sprayed the room, but that did not help.  Couldn't change rooms since they were supposedly full. Terrible night of rest.  Put our luggage in the bathroom to try to keep our clothes from stinking.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r215404355-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
@@ -990,6 +1561,42 @@
 I called the front desk and told them that they needed to find me another room or...I suppose this location is on par with other Extended Stay locations. However, I had some troubling experiences during my short 3-day stay here.Pros: kitchenette in roomQuietDecent HVAC in roomCons: Poorly trained staffRoom smelled very smoky (and it was a non-smoking room)"Breakfast" was pretty badWifi VERY slow, even when I upgradedNo dishes/utensils in room unless you specifically request themHorribly old, threadbare, rough towelsNo lounge area in lobby or elsewhereNOT wheelchair friendly (see below)Beds sagged visibly to one sideI stayed here with my family while waiting for some work to be done at our house, which was nearby.I reserved a queen, non-smoking suite and prepaid a "non refundable" rate through expedia. When I arrived, I was told that they had only one room available, it was a handicapped room on the 3rd floor with no bathtub. I was traveling with my toddler and so was disappointed that there was not a tub in the room, but the front desk staffer swore it was the only room left, so I figured I could make it work. But when I got up to the room, it was NOT a non-smoking room, and it smelled so bad that it made my eyes water. No way was I going to stay in that room.I called the front desk and told them that they needed to find me another room or refund my money. Amazingly, they found another room available, which means that the guy at the front desk blatantly lied several times earlier when he said they were completely booked.The new room, also on the 3rd floor, still smelled bad in the bathroom and the beds both sagged to one side, but it was clean and everything worked, plus it had a tub. Yay!I unloaded the car in the pouring rain (note: NO covered drive at the front door) and loaded everything onto a luggage cart. There was not an automatic handicapped access door, so I struggled to get everything through two sets of stairs. Note I saw several people struggle with these doors during my stay. Got to my room, and my husband and daughter and I had a couple of uneventful nights in the hotel. It was pleasantly quiet at night, and the fridge made some nice white noise. However, the towels were so threadbare and rough that I think they could be used for exfoliating. The breakfast was also extremely disappointing. It consisted of pre-packaged muffins, cereal bars, and oatmeal packets, apples  &amp; oranges, and coffee. NO juice, milk, cereal, bagels, or any other kid-friendly foods.Our third scheduled night there, we found out that our house was ready and decided to go back home and sleep in our own beds. I went back about 8:30pm to pack up our belongings, and while I was there, the fire alarm went off in the hotel. Everyone had to evacuate to the parking lot. When the fire department arrived, they could not find any staff members. The one staff person on duty had not been trained on what to do in this situation, and so he was still in the hotel instead of being outside where they could communicate with him to clear the building. At this point, I'd like to say that I don't think this hotel is appropriately equipped for guests in wheelchairs. Besides the fact that there are no automatic doors, there is also a huge danger to these guests in the event of a fire. They have handicap-accessible rooms on the 2nd and 3rd floor, but when that fire alarm went off, the large, heavy fire doors to the elevator slammed shut. That would have trapped anyone on those floors who was traveling alone and couldn't use the stairs.Once we we're let back into the building (although the very loud alarm was still going off), I packed up the rest of my belongings and thanked my lucky stars that we had taken our toddler home instead of putting her to bed at the hotel... That alarm surely would have made for a rough night!There's a chance we'll need another place to stay in the near future, but I'd rather pay a little extra to stay at a decent hotel with actual amenities next time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r206558300-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>206558300</t>
+  </si>
+  <si>
+    <t>05/21/2014</t>
+  </si>
+  <si>
+    <t>Excellent budget hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in my recent two week trip to Colorado. The checkin was super smooth and they even allowed me to checkin 4 hours before there usual checkin time without any extra charges. The room 215 was clean and perfect for one person or a couple. The kitchen was well stocked with appliances and quick breakfast can be easily made.The staff there is very helpful and will go out of the way to help. The location of this hotel is very good just couple of blocks from I25 and it has close proximity to all the restaurants. I would definitely recommend this hotel for your extended stays.My stay was enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in my recent two week trip to Colorado. The checkin was super smooth and they even allowed me to checkin 4 hours before there usual checkin time without any extra charges. The room 215 was clean and perfect for one person or a couple. The kitchen was well stocked with appliances and quick breakfast can be easily made.The staff there is very helpful and will go out of the way to help. The location of this hotel is very good just couple of blocks from I25 and it has close proximity to all the restaurants. I would definitely recommend this hotel for your extended stays.My stay was enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r205437129-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>205437129</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay for a week</t>
+  </si>
+  <si>
+    <t>This hotel was clean, roomy and updated.  We enjoyed our stay and the staff was very kind.  The breakfast was minimal but our room had a full kitchen so we made our own coffee and breakfast.  There were great restaurants within walking distance.  We slept well because it was quiet and the mattress was comfy.  We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r194422491-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1062,6 +1669,51 @@
     <t>Two of us stayed at this hotel for three months and have never met a more earnest, desire-to-be-helpful, staff anywhere.  If we had a need they could answer, it was done immediately and with a superb attitude (even turning on A/C in the laundry room when I was observed pulling off my sweater.) The hotel itself was adequate with newer carpeting and an elevator, and fresh linens, including the bedspread and blanket (the latter two were in plastic when they were brought to the room, but the sheets and towels show they have been used many times (not ragged, but "broken in." ) The Kitchenette is tight with a bar sink in the corner, making it difficult to wash the two ea. forks, spoons, knives,  plates, bowls, coffee cups and plastic glasses.  There is a sharper knife, can open and a colander and two pots, a small coffee maker and a toaster.  After using the frying pan to cook eggs, I had to use a steel wool scrub pad and hard scrubbing to clean it.  (I went to Tuesday Mornings and bought kitchen ware.) Being accustomed to breakfast at Holiday Inn Express, I was shocked at the apple or breakfast bar offering here.  The bed was great, the sofa had seen much better days, and was quite uncomfortable.  The a/c was a bit harsh-- too cool or too warm.  On a very positive note, renovations are to start renovations are...Two of us stayed at this hotel for three months and have never met a more earnest, desire-to-be-helpful, staff anywhere.  If we had a need they could answer, it was done immediately and with a superb attitude (even turning on A/C in the laundry room when I was observed pulling off my sweater.) The hotel itself was adequate with newer carpeting and an elevator, and fresh linens, including the bedspread and blanket (the latter two were in plastic when they were brought to the room, but the sheets and towels show they have been used many times (not ragged, but "broken in." ) The Kitchenette is tight with a bar sink in the corner, making it difficult to wash the two ea. forks, spoons, knives,  plates, bowls, coffee cups and plastic glasses.  There is a sharper knife, can open and a colander and two pots, a small coffee maker and a toaster.  After using the frying pan to cook eggs, I had to use a steel wool scrub pad and hard scrubbing to clean it.  (I went to Tuesday Mornings and bought kitchen ware.) Being accustomed to breakfast at Holiday Inn Express, I was shocked at the apple or breakfast bar offering here.  The bed was great, the sofa had seen much better days, and was quite uncomfortable.  The a/c was a bit harsh-- too cool or too warm.  On a very positive note, renovations are to start renovations are to start here next month, and I am sure that many of the items will be corrected.  For future clients' sake, I hope that they do not correct the water flow in the shower-- I had not had a shower this wonderful since water restricting showers became the norm!  It seems that many of the concerns from the years ago have been addressed.  It would be helpful if a new luggage cart replaced the one that is there, but I was able to manage with the old one that didn't have hooks for bags like newer models.  My only "complaint" is the residents' smoking at the entry ways and you can't escape the smoke at the elevator nor at the entries.  We were here along with residents displaced by the CO flood, and workers due to the flood.  I found all the residents to be quite nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r170357081-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>170357081</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Great value and great location</t>
+  </si>
+  <si>
+    <t>Clean and comfortable.Prime location between Boulder and Denver.Very quiet and people are pleasant. I would stay there again for extended stays.Did I mention its cheap !(need to fill 200 characters for the review so ....... .... ... ... .. .... ...)MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Clean and comfortable.Prime location between Boulder and Denver.Very quiet and people are pleasant. I would stay there again for extended stays.Did I mention its cheap !(need to fill 200 characters for the review so ....... .... ... ... .. .... ...)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r169757304-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>169757304</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>It's rather ghetto</t>
+  </si>
+  <si>
+    <t>I decided to stay here based on both the location and the other reviews. So I'm here now and although the front desk was very nice and helpful they placed me on the 3rd which reeks, and I mean, reeks of cigarette smoke. It has dogs barking in rooms and little kids screaming, and lots of transient like people. I don't feel it is unsafe but rather more "ghetto" than I thought it would be given the monthly cost of over 1400. I was under the impression this place for was professionals - you know folks in town working with a local company. Not locals needing a place to live. If this is the case then I would recommend calling around and getting a better price if they all have a simialr situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>I decided to stay here based on both the location and the other reviews. So I'm here now and although the front desk was very nice and helpful they placed me on the 3rd which reeks, and I mean, reeks of cigarette smoke. It has dogs barking in rooms and little kids screaming, and lots of transient like people. I don't feel it is unsafe but rather more "ghetto" than I thought it would be given the monthly cost of over 1400. I was under the impression this place for was professionals - you know folks in town working with a local company. Not locals needing a place to live. If this is the case then I would recommend calling around and getting a better price if they all have a simialr situation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r169418343-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1077,15 +1729,9 @@
     <t>The whole property is non-smoking, but our room smelled of cigarette smoke. They could not give us another room so we ended up checking out and leaving right away. They did give us a full refund. The place feels a little tired; the counter at the check-in is a bit beat up and the bathroom door in the room could not close all the way.MoreShow less</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded August 6, 2013</t>
   </si>
   <si>
-    <t>Responded August 6, 2013</t>
-  </si>
-  <si>
     <t>The whole property is non-smoking, but our room smelled of cigarette smoke. They could not give us another room so we ended up checking out and leaving right away. They did give us a full refund. The place feels a little tired; the counter at the check-in is a bit beat up and the bathroom door in the room could not close all the way.More</t>
   </si>
   <si>
@@ -1143,6 +1789,54 @@
     <t>I am a little late in getting this review up, but better late than never.  I stayed here in January for three months while I was getting additional training in my job.  At that time Sue was the manager.  She assembled a great team and everyone was very helpful for my concerns.  My requests were always dealt with in a timely manner.  My room was exceptionally quiet.  Highly recommended!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r162846045-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>162846045</t>
+  </si>
+  <si>
+    <t>06/03/2013</t>
+  </si>
+  <si>
+    <t>great long term stay</t>
+  </si>
+  <si>
+    <t>super clean rooms,excellent service ,overpriced for long term in my opinion,nice kitchenette.staff and help very professional and eager to please.laurndry clean and up to date.area is very nice ,lots of restaurants,walmarts and stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>super clean rooms,excellent service ,overpriced for long term in my opinion,nice kitchenette.staff and help very professional and eager to please.laurndry clean and up to date.area is very nice ,lots of restaurants,walmarts and stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r160277726-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>160277726</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Terrible. Over-priced for nothing.</t>
+  </si>
+  <si>
+    <t>They tried to "walk us" when we checked in, telling us no rooms.  When I pushed back they magically found one.  Too bad!  No service-you have to go ASK for more towels, etc., &amp; make your own bed.  No maintenance -hole in floor-wall by a/c.  No lobby.  Etc etc.  and price was higher than nearby full service hotels of similar or higher rating.  How this one gets 4 stars is beyond me!  I'll never stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded May 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2013</t>
+  </si>
+  <si>
+    <t>They tried to "walk us" when we checked in, telling us no rooms.  When I pushed back they magically found one.  Too bad!  No service-you have to go ASK for more towels, etc., &amp; make your own bed.  No maintenance -hole in floor-wall by a/c.  No lobby.  Etc etc.  and price was higher than nearby full service hotels of similar or higher rating.  How this one gets 4 stars is beyond me!  I'll never stay here again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r158191515-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1221,6 +1915,54 @@
     <t>Me And My Husband was so pleased with our stay at the extended stay!!!Our daughter booked us a room for the week since we were coming to visit our family in Colorado!!!I must say the staff at the front desk,Katie,tj,Becky,Are such great people to be around they make you feel so at home!!Sue the mgr is one in a million she goes out of her way to make her guest feel so comfortable and always has a smile when we see her!!!I would for sure stay at this hotel next time we are in Colorado and will tell the rest of our family and friends that comes to visit Colorado to stay at the extended stay in Westminster! !Truly the best hotel I've stayed at in along time!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r154360545-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>154360545</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Try next door at Savanah Suites.</t>
+  </si>
+  <si>
+    <t>Plus:Good location.Starbucks next door.Friendly staff.Pet friendly.Nice room.Hotel kept up. Minus:$100/wk more than next door. Breakfast not as promised. Elevator broken. Room had glue smell. No info on Extended Stay Plus program. MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded March 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2013</t>
+  </si>
+  <si>
+    <t>Plus:Good location.Starbucks next door.Friendly staff.Pet friendly.Nice room.Hotel kept up. Minus:$100/wk more than next door. Breakfast not as promised. Elevator broken. Room had glue smell. No info on Extended Stay Plus program. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r152282291-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>152282291</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Great stay &amp; Great service</t>
+  </si>
+  <si>
+    <t>I have stayed at many hotels but this Extended Stay by far exceeds my expectations with service.  Sue, TJ, Ellie, and Katie are great.  It's like having a group of friends away from home.  I also enjoyed the new beds and new bed spreads it makes it feels more cozier.  The room was very clean and smelled fresh.  I also enjoyed the grab and go breakfast this comes in handy when I don't have time to make breakfast or stop at Starbucks for a coffee.  I would recommend this place to my friends and family.  Thank you Extended Stay staff for making my stay great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at many hotels but this Extended Stay by far exceeds my expectations with service.  Sue, TJ, Ellie, and Katie are great.  It's like having a group of friends away from home.  I also enjoyed the new beds and new bed spreads it makes it feels more cozier.  The room was very clean and smelled fresh.  I also enjoyed the grab and go breakfast this comes in handy when I don't have time to make breakfast or stop at Starbucks for a coffee.  I would recommend this place to my friends and family.  Thank you Extended Stay staff for making my stay great.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r151642063-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1293,6 +2035,54 @@
     <t>The staff at this hotel goes out of their way to accommodate the needs of all guests.  Ellie and Katie work the front desk in the daytime hours and are always polite with a big smile to greet you.  T.J. works mostly at night and he goes above and beyond to make sure we feel at home.  Anything we need, T.J. is always there to make sure we have it. Sue the manager does a great job with her staff obviously!  I would not stay anywhere else in the area.  This particular hotel is always clean and by far gives the best customer service in town!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r149991629-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>149991629</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>Your Best Choice!</t>
+  </si>
+  <si>
+    <t>I have truely experienced an extended stay at this quality lodging property an highlyrecommend it. The property is well maintained with ongoing upgrades. However it is the staff which really stands out. Their attentiveness and genuine concern is apparent with all the personnel - front desk, maintenance, and housekeeping.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded January 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2013</t>
+  </si>
+  <si>
+    <t>I have truely experienced an extended stay at this quality lodging property an highlyrecommend it. The property is well maintained with ongoing upgrades. However it is the staff which really stands out. Their attentiveness and genuine concern is apparent with all the personnel - front desk, maintenance, and housekeeping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r149852201-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>149852201</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>Kenny's Home away from Home!</t>
+  </si>
+  <si>
+    <t>I have been living here for months now following a divorce and loss of my real home of 30 years. With it's ultra friendly staff it made my situation much more tolerable and fun than sitting in a regular hotel.The entire staff takes the time and effort to stop and talk to you and make sure your day is going well. Rooms are kept clean. They are constantly upgrading services and making things more desirable for your comfort. Like just replacing every mattress in the place with very comfortable brand name mattresses that are enclosed with bed bug covers that actually have locks on them so they cannot be unzipped to let anything in. The kitchens are great to have so you can go to store and cook in room to save money. Equipped with full size refrigerators. Not those puny fridges found in normal hotels. Price is comparable with normal hotels but you receive so many more features. New flat screen TV's are great. I can't say anything but great things about the manager Sue.She is one of the nicest people I've met and I enjoy talking to all of her staff. Especially T.J. and Rob because we constantly make fun of each other and give each other a hard time (friendly type). Katie a receptionist is a very caring person. I haven't spent a lot of time with everyone on the staff but they are all great people...I have been living here for months now following a divorce and loss of my real home of 30 years. With it's ultra friendly staff it made my situation much more tolerable and fun than sitting in a regular hotel.The entire staff takes the time and effort to stop and talk to you and make sure your day is going well. Rooms are kept clean. They are constantly upgrading services and making things more desirable for your comfort. Like just replacing every mattress in the place with very comfortable brand name mattresses that are enclosed with bed bug covers that actually have locks on them so they cannot be unzipped to let anything in. The kitchens are great to have so you can go to store and cook in room to save money. Equipped with full size refrigerators. Not those puny fridges found in normal hotels. Price is comparable with normal hotels but you receive so many more features. New flat screen TV's are great. I can't say anything but great things about the manager Sue.She is one of the nicest people I've met and I enjoy talking to all of her staff. Especially T.J. and Rob because we constantly make fun of each other and give each other a hard time (friendly type). Katie a receptionist is a very caring person. I haven't spent a lot of time with everyone on the staff but they are all great people that make your stay as personal and comfortable as possible. Vicki, my house cleaner is very comforting to me as I am handicapped and her husband has similar issues. He and I are both Veterans so she has concerns for me which is nice. Her helper Lilly (I call smiley) immediately puts you in a good mood with her beautiful smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded January 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2013</t>
+  </si>
+  <si>
+    <t>I have been living here for months now following a divorce and loss of my real home of 30 years. With it's ultra friendly staff it made my situation much more tolerable and fun than sitting in a regular hotel.The entire staff takes the time and effort to stop and talk to you and make sure your day is going well. Rooms are kept clean. They are constantly upgrading services and making things more desirable for your comfort. Like just replacing every mattress in the place with very comfortable brand name mattresses that are enclosed with bed bug covers that actually have locks on them so they cannot be unzipped to let anything in. The kitchens are great to have so you can go to store and cook in room to save money. Equipped with full size refrigerators. Not those puny fridges found in normal hotels. Price is comparable with normal hotels but you receive so many more features. New flat screen TV's are great. I can't say anything but great things about the manager Sue.She is one of the nicest people I've met and I enjoy talking to all of her staff. Especially T.J. and Rob because we constantly make fun of each other and give each other a hard time (friendly type). Katie a receptionist is a very caring person. I haven't spent a lot of time with everyone on the staff but they are all great people...I have been living here for months now following a divorce and loss of my real home of 30 years. With it's ultra friendly staff it made my situation much more tolerable and fun than sitting in a regular hotel.The entire staff takes the time and effort to stop and talk to you and make sure your day is going well. Rooms are kept clean. They are constantly upgrading services and making things more desirable for your comfort. Like just replacing every mattress in the place with very comfortable brand name mattresses that are enclosed with bed bug covers that actually have locks on them so they cannot be unzipped to let anything in. The kitchens are great to have so you can go to store and cook in room to save money. Equipped with full size refrigerators. Not those puny fridges found in normal hotels. Price is comparable with normal hotels but you receive so many more features. New flat screen TV's are great. I can't say anything but great things about the manager Sue.She is one of the nicest people I've met and I enjoy talking to all of her staff. Especially T.J. and Rob because we constantly make fun of each other and give each other a hard time (friendly type). Katie a receptionist is a very caring person. I haven't spent a lot of time with everyone on the staff but they are all great people that make your stay as personal and comfortable as possible. Vicki, my house cleaner is very comforting to me as I am handicapped and her husband has similar issues. He and I are both Veterans so she has concerns for me which is nice. Her helper Lilly (I call smiley) immediately puts you in a good mood with her beautiful smile.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r143995271-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1374,6 +2164,57 @@
     <t>If you are just looking for a place to rest your head for a day or two, this is a nice place to do so.  The room was clean, the staff were friendly, and the stay was enjoyable.  Location was also quite handy.  Only twenty minutes from downtown.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r135929344-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>135929344</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>TJ and Susan keep making this place feel like a home. I travel all the time and even though it's a bit outside of Denver or Boulder. The staff makes it so worth while. Always clean and always friendly and accommodating staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Westminster, responded to this reviewResponded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2012</t>
+  </si>
+  <si>
+    <t>TJ and Susan keep making this place feel like a home. I travel all the time and even though it's a bit outside of Denver or Boulder. The staff makes it so worth while. Always clean and always friendly and accommodating staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r135381654-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>135381654</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>A real home away from home</t>
+  </si>
+  <si>
+    <t>My husband and myself made a trip to Denver this year, for a family member who was ill.  We stayed at the extended stay in westminster.  We had such a wonderful experience, with all we had to deal with, the hotel was great from fast check in, to great customer service.  The room was clean, the front desk employees were so great, from the manager Sue to the young lady at the front desk Ellie.  They gave us the names of great places to eat ,and to remember my name when I came to the front desk with a question. Now thats a real "we'll keep the light on for you" place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Owner at Extended Stay America - Denver - Westminster, responded to this reviewResponded July 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2012</t>
+  </si>
+  <si>
+    <t>My husband and myself made a trip to Denver this year, for a family member who was ill.  We stayed at the extended stay in westminster.  We had such a wonderful experience, with all we had to deal with, the hotel was great from fast check in, to great customer service.  The room was clean, the front desk employees were so great, from the manager Sue to the young lady at the front desk Ellie.  They gave us the names of great places to eat ,and to remember my name when I came to the front desk with a question. Now thats a real "we'll keep the light on for you" place to stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r131086303-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1437,6 +2278,45 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r88215787-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>88215787</t>
+  </si>
+  <si>
+    <t>11/25/2010</t>
+  </si>
+  <si>
+    <t>The King Bed was Good</t>
+  </si>
+  <si>
+    <t>good value, bed was good and room was smoke free. Bathroom was good and enjoyed the recliner.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r79064804-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>79064804</t>
+  </si>
+  <si>
+    <t>09/10/2010</t>
+  </si>
+  <si>
+    <t>The WiFi is a pathetic Rip-off!</t>
+  </si>
+  <si>
+    <t>The hotel was affordable and clean, however, their WiFi is slow and a total waste of money. I was working out of the hotel room and connected to my office network usin a VPN connection when my connection broke. Their service said I was connected to the internet, so me and my company's IT HelpDesk spent two days trying to figure out the problem. It turns out that ,although I was connected to Extended Stay America's WiFi router, their IT folks were blocking my computer from accessing the internet. (They later said I was hogging the bandwidth and arbitrarily blocked me without telling me.) I lost two days of work and it wasn't until I walked across the parking lot to Starbucks did I realize the problem was with the hotel. BTW, Starbucks transmissions rate was 54 Mbps, Extended Stay America's was a lame 11 Mbps and they have about 120 rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>The hotel was affordable and clean, however, their WiFi is slow and a total waste of money. I was working out of the hotel room and connected to my office network usin a VPN connection when my connection broke. Their service said I was connected to the internet, so me and my company's IT HelpDesk spent two days trying to figure out the problem. It turns out that ,although I was connected to Extended Stay America's WiFi router, their IT folks were blocking my computer from accessing the internet. (They later said I was hogging the bandwidth and arbitrarily blocked me without telling me.) I lost two days of work and it wasn't until I walked across the parking lot to Starbucks did I realize the problem was with the hotel. BTW, Starbucks transmissions rate was 54 Mbps, Extended Stay America's was a lame 11 Mbps and they have about 120 rooms.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r17093124-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
   </si>
   <si>
@@ -1489,6 +2369,21 @@
   </si>
   <si>
     <t>We bid on priceline for this stay - $45 per night for a 3 night stay. You do have to pay a flat rate of $5(per stay) for hi-speed internet.  The hotel is convenient to Federal Hwy (287), I-25 and Hwy 36. We had no problem finding it.   It is a good neighborhood (no crime worries that I could see) and is very close to restaurants, shopping, gas stations, and more.  We were greeted promptly by a friendly staff member. This rooms are a bit spartan, but are efficiently arranged with large bathrooms, a well appointed kitchenette, a small tv, iron and ironing board.  The room was clean but smelled stringent from some industrial cleaner. The beds are small and creaky, bring an extra pillow because the pillows are small and flat.  Overall the beds and bedding need to be upgraded, but did appear to be clean.  This hotel is quiet, most guests are truly extended stay guests on long term lease.  Though there could be some improvements I would stay here again for the right price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33691-d225474-r2313934-Extended_Stay_America_Denver_Westminster-Westminster_Colorado.html</t>
+  </si>
+  <si>
+    <t>2313934</t>
+  </si>
+  <si>
+    <t>07/20/2004</t>
+  </si>
+  <si>
+    <t>Come to the Rockies</t>
+  </si>
+  <si>
+    <t>A good place to stay north of Denver. Close to I25 and the Mountains about 40 mins to Denver, quiet at night clean rooms and helpful staff.</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2918,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2031,21 +2926,17 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -2094,7 +2985,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
@@ -2102,15 +2993,17 @@
       <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -2159,41 +3052,31 @@
         <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>71</v>
       </c>
       <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
         <v>72</v>
       </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>73</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2209,52 +3092,62 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
         <v>81</v>
       </c>
-      <c r="O5" t="s">
+      <c r="X5" t="s">
         <v>82</v>
       </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>83</v>
-      </c>
-      <c r="X5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -2270,62 +3163,56 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
         <v>89</v>
       </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
-      </c>
       <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
         <v>92</v>
-      </c>
-      <c r="X6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -2341,62 +3228,62 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
         <v>95</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>97</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
         <v>100</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -2412,46 +3299,40 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>103</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>104</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>106</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>107</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>108</v>
-      </c>
       <c r="O8" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2461,13 +3342,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
         <v>109</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>110</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -2483,62 +3364,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>112</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>113</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>114</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>115</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
         <v>116</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>117</v>
       </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
-      <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>118</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>119</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -2554,51 +3425,41 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>121</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>122</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>124</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
         <v>125</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -2652,7 +3513,7 @@
         <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2708,13 +3569,13 @@
         <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -2723,7 +3584,7 @@
         <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2745,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2767,7 +3628,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2776,34 +3637,34 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
         <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
@@ -2816,13 +3677,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -2838,7 +3699,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2847,25 +3708,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2877,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -2899,7 +3760,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2908,43 +3769,53 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
+        <v>170</v>
+      </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
@@ -2960,7 +3831,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2969,39 +3840,53 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -3017,7 +3902,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3026,45 +3911,53 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>177</v>
       </c>
-      <c r="L17" t="s">
-        <v>178</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>179</v>
-      </c>
       <c r="O17" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -3080,7 +3973,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3089,26 +3982,22 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="s">
-        <v>186</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -3119,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
@@ -3141,7 +4030,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3150,43 +4039,53 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -3202,7 +4101,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3211,31 +4110,35 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>202</v>
       </c>
-      <c r="L20" t="s">
-        <v>203</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>204</v>
-      </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="n">
         <v>5</v>
       </c>
@@ -3246,10 +4149,14 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s">
+        <v>212</v>
+      </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -3265,7 +4172,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3274,25 +4181,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="J21" t="s">
         <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3300,8 +4207,12 @@
       <c r="Q21" t="n">
         <v>5</v>
       </c>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -3309,10 +4220,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
+        <v>212</v>
+      </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
@@ -3328,7 +4243,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3337,45 +4252,53 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
         <v>3</v>
       </c>
-      <c r="N22" t="s">
-        <v>204</v>
-      </c>
-      <c r="O22" t="s">
-        <v>62</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
@@ -3391,7 +4314,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3400,43 +4323,53 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
       <c r="Y23" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
@@ -3452,7 +4385,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3461,45 +4394,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>224</v>
       </c>
-      <c r="J24" t="s">
-        <v>225</v>
-      </c>
-      <c r="K24" t="s">
-        <v>226</v>
-      </c>
-      <c r="L24" t="s">
-        <v>227</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>228</v>
-      </c>
       <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
       <c r="Y24" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
@@ -3515,7 +4446,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3524,45 +4455,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>240</v>
+      </c>
+      <c r="X25" t="s">
+        <v>241</v>
+      </c>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
@@ -3578,7 +4507,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3587,47 +4516,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>242</v>
-      </c>
-      <c r="X26" t="s">
-        <v>243</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
@@ -3643,7 +4568,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3652,43 +4577,39 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
@@ -3704,7 +4625,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3713,45 +4634,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>256</v>
-      </c>
-      <c r="O28" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="s"/>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>267</v>
+      </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -3767,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3776,37 +4691,35 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s">
-        <v>82</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3814,7 +4727,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
@@ -3830,7 +4743,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3839,35 +4752,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3875,7 +4790,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
@@ -3891,7 +4806,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3900,25 +4815,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3929,10 +4844,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>288</v>
+      </c>
+      <c r="X31" t="s">
+        <v>289</v>
+      </c>
       <c r="Y31" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
@@ -3948,7 +4867,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3957,45 +4876,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="O32" t="s">
-        <v>72</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>297</v>
+      </c>
+      <c r="X32" t="s">
+        <v>298</v>
+      </c>
       <c r="Y32" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
@@ -4011,7 +4928,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4020,45 +4937,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="K33" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="L33" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X33" t="s">
+        <v>306</v>
+      </c>
       <c r="Y33" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
@@ -4074,7 +4989,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4083,37 +4998,37 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="J34" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="K34" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>313</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
       <c r="P34" t="n">
         <v>3</v>
       </c>
       <c r="Q34" t="n">
         <v>3</v>
       </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -4121,7 +5036,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
@@ -4137,7 +5052,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4146,49 +5061,45 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>295</v>
-      </c>
-      <c r="X35" t="s">
-        <v>296</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
@@ -4204,7 +5115,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4213,25 +5124,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4239,12 +5150,8 @@
       <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4255,7 +5162,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37">
@@ -4271,7 +5178,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4280,53 +5187,45 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="J37" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>309</v>
-      </c>
-      <c r="X37" t="s">
-        <v>310</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38">
@@ -4342,7 +5241,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4351,41 +5250,35 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="J38" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="K38" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>82</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P38" t="s"/>
       <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4393,7 +5286,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39">
@@ -4409,7 +5302,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4418,38 +5311,34 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="J39" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
         <v>5</v>
       </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4458,13 +5347,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="X39" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="Y39" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
@@ -4480,7 +5369,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4489,53 +5378,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="J40" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="K40" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="L40" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>333</v>
-      </c>
-      <c r="X40" t="s">
-        <v>334</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41">
@@ -4551,7 +5430,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4560,43 +5439,45 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="J41" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>342</v>
-      </c>
-      <c r="X41" t="s">
-        <v>343</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42">
@@ -4612,7 +5493,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4621,53 +5502,45 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
         <v>3</v>
       </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>351</v>
-      </c>
-      <c r="X42" t="s">
-        <v>352</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
@@ -4683,7 +5556,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4692,53 +5565,45 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="J43" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="K43" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="L43" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>360</v>
-      </c>
-      <c r="X43" t="s">
-        <v>361</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44">
@@ -4754,7 +5619,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4763,53 +5628,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="J44" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K44" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
         <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>369</v>
-      </c>
-      <c r="X44" t="s">
-        <v>370</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45">
@@ -4825,7 +5680,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4834,53 +5689,47 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J45" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K45" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L45" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="O45" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="X45" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Y45" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46">
@@ -4896,7 +5745,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4905,34 +5754,32 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J46" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+      <c r="N46" t="s">
+        <v>389</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
         <v>5</v>
       </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -4940,12 +5787,8 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>386</v>
-      </c>
-      <c r="X46" t="s">
-        <v>387</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
         <v>388</v>
       </c>
@@ -4963,7 +5806,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4972,43 +5815,45 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J47" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="O47" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
         <v>394</v>
-      </c>
-      <c r="X47" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="48">
@@ -5024,58 +5869,52 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
         <v>397</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>398</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>399</v>
       </c>
-      <c r="K48" t="s">
-        <v>400</v>
-      </c>
-      <c r="L48" t="s">
-        <v>401</v>
-      </c>
       <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s"/>
-      <c r="O48" t="s"/>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>336</v>
+      </c>
+      <c r="O48" t="s">
+        <v>89</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>402</v>
-      </c>
-      <c r="X48" t="s">
-        <v>403</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49">
@@ -5091,62 +5930,54 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>400</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>401</v>
+      </c>
+      <c r="J49" t="s">
+        <v>402</v>
+      </c>
+      <c r="K49" t="s">
+        <v>403</v>
+      </c>
+      <c r="L49" t="s">
+        <v>404</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
         <v>405</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
-        <v>406</v>
-      </c>
-      <c r="J49" t="s">
-        <v>407</v>
-      </c>
-      <c r="K49" t="s">
-        <v>408</v>
-      </c>
-      <c r="L49" t="s">
-        <v>409</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>359</v>
-      </c>
       <c r="O49" t="s">
-        <v>82</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>410</v>
-      </c>
-      <c r="X49" t="s">
-        <v>411</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50">
@@ -5162,7 +5993,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5171,38 +6002,34 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="J50" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K50" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
         <v>4</v>
       </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
         <v>5</v>
@@ -5210,14 +6037,10 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>419</v>
-      </c>
-      <c r="X50" t="s">
-        <v>420</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51">
@@ -5233,7 +6056,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5242,53 +6065,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="J51" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K51" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="L51" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>4</v>
-      </c>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>428</v>
-      </c>
-      <c r="X51" t="s">
-        <v>429</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52">
@@ -5304,7 +6117,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5313,53 +6126,39 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="J52" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="K52" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="L52" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="O52" t="s">
         <v>53</v>
       </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>4</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>437</v>
-      </c>
-      <c r="X52" t="s">
-        <v>438</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53">
@@ -5375,7 +6174,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5384,53 +6183,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="J53" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="K53" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="L53" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>445</v>
+        <v>325</v>
       </c>
       <c r="O53" t="s">
         <v>53</v>
       </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>3</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>446</v>
-      </c>
-      <c r="X53" t="s">
-        <v>447</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54">
@@ -5446,7 +6235,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5455,53 +6244,39 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="J54" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="K54" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="L54" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="O54" t="s">
-        <v>72</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>446</v>
-      </c>
-      <c r="X54" t="s">
-        <v>447</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55">
@@ -5517,7 +6292,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5526,25 +6301,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="J55" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="K55" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="L55" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="O55" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5552,12 +6327,8 @@
       <c r="Q55" t="n">
         <v>5</v>
       </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
         <v>5</v>
@@ -5568,7 +6339,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56">
@@ -5584,7 +6355,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5593,35 +6364,45 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="J56" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="K56" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="L56" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
-      <c r="P56" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>446</v>
+      </c>
+      <c r="O56" t="s">
+        <v>125</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57">
@@ -5637,7 +6418,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5646,35 +6427,45 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="J57" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="K57" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s"/>
       <c r="O57" t="s"/>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58">
@@ -5690,7 +6481,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5699,41 +6490,35 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="J58" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="O58" t="s">
-        <v>72</v>
-      </c>
-      <c r="P58" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="n">
-        <v>3</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5741,7 +6526,2721 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>459</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>460</v>
+      </c>
+      <c r="J59" t="s">
+        <v>461</v>
+      </c>
+      <c r="K59" t="s">
+        <v>462</v>
+      </c>
+      <c r="L59" t="s">
+        <v>463</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>464</v>
+      </c>
+      <c r="O59" t="s">
+        <v>125</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>465</v>
+      </c>
+      <c r="X59" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>468</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>469</v>
+      </c>
+      <c r="J60" t="s">
+        <v>470</v>
+      </c>
+      <c r="K60" t="s">
+        <v>471</v>
+      </c>
+      <c r="L60" t="s">
+        <v>472</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>473</v>
+      </c>
+      <c r="O60" t="s">
+        <v>125</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>474</v>
+      </c>
+      <c r="X60" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>477</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
         <v>478</v>
+      </c>
+      <c r="J61" t="s">
+        <v>479</v>
+      </c>
+      <c r="K61" t="s">
+        <v>480</v>
+      </c>
+      <c r="L61" t="s">
+        <v>481</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>473</v>
+      </c>
+      <c r="O61" t="s">
+        <v>125</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>482</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>483</v>
+      </c>
+      <c r="J62" t="s">
+        <v>484</v>
+      </c>
+      <c r="K62" t="s">
+        <v>485</v>
+      </c>
+      <c r="L62" t="s">
+        <v>486</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>487</v>
+      </c>
+      <c r="O62" t="s">
+        <v>125</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>488</v>
+      </c>
+      <c r="X62" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>491</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>492</v>
+      </c>
+      <c r="J63" t="s">
+        <v>493</v>
+      </c>
+      <c r="K63" t="s">
+        <v>494</v>
+      </c>
+      <c r="L63" t="s">
+        <v>495</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>487</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>497</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>498</v>
+      </c>
+      <c r="J64" t="s">
+        <v>499</v>
+      </c>
+      <c r="K64" t="s">
+        <v>500</v>
+      </c>
+      <c r="L64" t="s">
+        <v>501</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>502</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>503</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>504</v>
+      </c>
+      <c r="J65" t="s">
+        <v>505</v>
+      </c>
+      <c r="K65" t="s">
+        <v>506</v>
+      </c>
+      <c r="L65" t="s">
+        <v>507</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>508</v>
+      </c>
+      <c r="O65" t="s">
+        <v>125</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>510</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>511</v>
+      </c>
+      <c r="J66" t="s">
+        <v>512</v>
+      </c>
+      <c r="K66" t="s">
+        <v>513</v>
+      </c>
+      <c r="L66" t="s">
+        <v>514</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>515</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>516</v>
+      </c>
+      <c r="X66" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>519</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>520</v>
+      </c>
+      <c r="J67" t="s">
+        <v>521</v>
+      </c>
+      <c r="K67" t="s">
+        <v>522</v>
+      </c>
+      <c r="L67" t="s">
+        <v>523</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>515</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>524</v>
+      </c>
+      <c r="X67" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>527</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>528</v>
+      </c>
+      <c r="J68" t="s">
+        <v>529</v>
+      </c>
+      <c r="K68" t="s">
+        <v>530</v>
+      </c>
+      <c r="L68" t="s">
+        <v>531</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>532</v>
+      </c>
+      <c r="O68" t="s">
+        <v>89</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>533</v>
+      </c>
+      <c r="X68" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>536</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>537</v>
+      </c>
+      <c r="J69" t="s">
+        <v>538</v>
+      </c>
+      <c r="K69" t="s">
+        <v>539</v>
+      </c>
+      <c r="L69" t="s">
+        <v>540</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>532</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>542</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>543</v>
+      </c>
+      <c r="J70" t="s">
+        <v>544</v>
+      </c>
+      <c r="K70" t="s">
+        <v>545</v>
+      </c>
+      <c r="L70" t="s">
+        <v>546</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>532</v>
+      </c>
+      <c r="O70" t="s">
+        <v>125</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>547</v>
+      </c>
+      <c r="X70" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>549</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>550</v>
+      </c>
+      <c r="J71" t="s">
+        <v>551</v>
+      </c>
+      <c r="K71" t="s">
+        <v>552</v>
+      </c>
+      <c r="L71" t="s">
+        <v>553</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>554</v>
+      </c>
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>555</v>
+      </c>
+      <c r="X71" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>558</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>559</v>
+      </c>
+      <c r="J72" t="s">
+        <v>560</v>
+      </c>
+      <c r="K72" t="s">
+        <v>561</v>
+      </c>
+      <c r="L72" t="s">
+        <v>562</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>563</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>564</v>
+      </c>
+      <c r="X72" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>567</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>568</v>
+      </c>
+      <c r="J73" t="s">
+        <v>569</v>
+      </c>
+      <c r="K73" t="s">
+        <v>570</v>
+      </c>
+      <c r="L73" t="s">
+        <v>571</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>554</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>572</v>
+      </c>
+      <c r="X73" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>575</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>576</v>
+      </c>
+      <c r="J74" t="s">
+        <v>577</v>
+      </c>
+      <c r="K74" t="s">
+        <v>578</v>
+      </c>
+      <c r="L74" t="s">
+        <v>579</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>580</v>
+      </c>
+      <c r="X74" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>583</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>584</v>
+      </c>
+      <c r="J75" t="s">
+        <v>585</v>
+      </c>
+      <c r="K75" t="s">
+        <v>586</v>
+      </c>
+      <c r="L75" t="s">
+        <v>587</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>588</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>589</v>
+      </c>
+      <c r="X75" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>592</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>593</v>
+      </c>
+      <c r="J76" t="s">
+        <v>594</v>
+      </c>
+      <c r="K76" t="s">
+        <v>595</v>
+      </c>
+      <c r="L76" t="s">
+        <v>596</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>597</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>598</v>
+      </c>
+      <c r="X76" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>601</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>602</v>
+      </c>
+      <c r="J77" t="s">
+        <v>603</v>
+      </c>
+      <c r="K77" t="s">
+        <v>604</v>
+      </c>
+      <c r="L77" t="s">
+        <v>605</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>606</v>
+      </c>
+      <c r="X77" t="s">
+        <v>607</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>609</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>610</v>
+      </c>
+      <c r="J78" t="s">
+        <v>611</v>
+      </c>
+      <c r="K78" t="s">
+        <v>612</v>
+      </c>
+      <c r="L78" t="s">
+        <v>613</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>614</v>
+      </c>
+      <c r="X78" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>617</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>618</v>
+      </c>
+      <c r="J79" t="s">
+        <v>619</v>
+      </c>
+      <c r="K79" t="s">
+        <v>620</v>
+      </c>
+      <c r="L79" t="s">
+        <v>621</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>563</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>622</v>
+      </c>
+      <c r="X79" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>625</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>626</v>
+      </c>
+      <c r="J80" t="s">
+        <v>627</v>
+      </c>
+      <c r="K80" t="s">
+        <v>628</v>
+      </c>
+      <c r="L80" t="s">
+        <v>629</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>563</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>630</v>
+      </c>
+      <c r="X80" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>633</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>634</v>
+      </c>
+      <c r="J81" t="s">
+        <v>635</v>
+      </c>
+      <c r="K81" t="s">
+        <v>636</v>
+      </c>
+      <c r="L81" t="s">
+        <v>637</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>638</v>
+      </c>
+      <c r="X81" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>641</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>642</v>
+      </c>
+      <c r="J82" t="s">
+        <v>643</v>
+      </c>
+      <c r="K82" t="s">
+        <v>644</v>
+      </c>
+      <c r="L82" t="s">
+        <v>645</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>563</v>
+      </c>
+      <c r="O82" t="s">
+        <v>125</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>646</v>
+      </c>
+      <c r="X82" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>649</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>650</v>
+      </c>
+      <c r="J83" t="s">
+        <v>651</v>
+      </c>
+      <c r="K83" t="s">
+        <v>652</v>
+      </c>
+      <c r="L83" t="s">
+        <v>653</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>563</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>654</v>
+      </c>
+      <c r="X83" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>657</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>658</v>
+      </c>
+      <c r="J84" t="s">
+        <v>659</v>
+      </c>
+      <c r="K84" t="s">
+        <v>660</v>
+      </c>
+      <c r="L84" t="s">
+        <v>661</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>597</v>
+      </c>
+      <c r="O84" t="s">
+        <v>89</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>662</v>
+      </c>
+      <c r="X84" t="s">
+        <v>663</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>665</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>666</v>
+      </c>
+      <c r="J85" t="s">
+        <v>667</v>
+      </c>
+      <c r="K85" t="s">
+        <v>668</v>
+      </c>
+      <c r="L85" t="s">
+        <v>669</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>670</v>
+      </c>
+      <c r="O85" t="s">
+        <v>62</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>671</v>
+      </c>
+      <c r="X85" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>674</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>675</v>
+      </c>
+      <c r="J86" t="s">
+        <v>676</v>
+      </c>
+      <c r="K86" t="s">
+        <v>677</v>
+      </c>
+      <c r="L86" t="s">
+        <v>678</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>679</v>
+      </c>
+      <c r="O86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>680</v>
+      </c>
+      <c r="X86" t="s">
+        <v>681</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>683</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>684</v>
+      </c>
+      <c r="J87" t="s">
+        <v>685</v>
+      </c>
+      <c r="K87" t="s">
+        <v>686</v>
+      </c>
+      <c r="L87" t="s">
+        <v>687</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>688</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>689</v>
+      </c>
+      <c r="X87" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>692</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>693</v>
+      </c>
+      <c r="J88" t="s">
+        <v>694</v>
+      </c>
+      <c r="K88" t="s">
+        <v>245</v>
+      </c>
+      <c r="L88" t="s">
+        <v>695</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>696</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>697</v>
+      </c>
+      <c r="X88" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>700</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>701</v>
+      </c>
+      <c r="J89" t="s">
+        <v>702</v>
+      </c>
+      <c r="K89" t="s">
+        <v>703</v>
+      </c>
+      <c r="L89" t="s">
+        <v>704</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>705</v>
+      </c>
+      <c r="O89" t="s">
+        <v>125</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>706</v>
+      </c>
+      <c r="X89" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>709</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>710</v>
+      </c>
+      <c r="J90" t="s">
+        <v>711</v>
+      </c>
+      <c r="K90" t="s">
+        <v>712</v>
+      </c>
+      <c r="L90" t="s">
+        <v>713</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>714</v>
+      </c>
+      <c r="O90" t="s">
+        <v>62</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>715</v>
+      </c>
+      <c r="X90" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>718</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>719</v>
+      </c>
+      <c r="J91" t="s">
+        <v>720</v>
+      </c>
+      <c r="K91" t="s">
+        <v>721</v>
+      </c>
+      <c r="L91" t="s">
+        <v>722</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>679</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>715</v>
+      </c>
+      <c r="X91" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>724</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>725</v>
+      </c>
+      <c r="J92" t="s">
+        <v>726</v>
+      </c>
+      <c r="K92" t="s">
+        <v>727</v>
+      </c>
+      <c r="L92" t="s">
+        <v>728</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>729</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>730</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>731</v>
+      </c>
+      <c r="J93" t="s">
+        <v>732</v>
+      </c>
+      <c r="K93" t="s">
+        <v>733</v>
+      </c>
+      <c r="L93" t="s">
+        <v>734</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>735</v>
+      </c>
+      <c r="O93" t="s">
+        <v>89</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>736</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>737</v>
+      </c>
+      <c r="J94" t="s">
+        <v>738</v>
+      </c>
+      <c r="K94" t="s">
+        <v>739</v>
+      </c>
+      <c r="L94" t="s">
+        <v>740</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>741</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>743</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>744</v>
+      </c>
+      <c r="J95" t="s">
+        <v>745</v>
+      </c>
+      <c r="K95" t="s">
+        <v>746</v>
+      </c>
+      <c r="L95" t="s">
+        <v>747</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>748</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>749</v>
+      </c>
+      <c r="J96" t="s">
+        <v>750</v>
+      </c>
+      <c r="K96" t="s">
+        <v>751</v>
+      </c>
+      <c r="L96" t="s">
+        <v>752</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>754</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>755</v>
+      </c>
+      <c r="J97" t="s">
+        <v>756</v>
+      </c>
+      <c r="K97" t="s">
+        <v>757</v>
+      </c>
+      <c r="L97" t="s">
+        <v>758</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>759</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>39456</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>761</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>762</v>
+      </c>
+      <c r="J98" t="s">
+        <v>763</v>
+      </c>
+      <c r="K98" t="s">
+        <v>764</v>
+      </c>
+      <c r="L98" t="s">
+        <v>765</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>765</v>
       </c>
     </row>
   </sheetData>
